--- a/FpML.V5r3.Applications/ExcelAPI/Spreadsheets/Rates/XccySpreadCurve.xlsx
+++ b/FpML.V5r3.Applications/ExcelAPI/Spreadsheets/Rates/XccySpreadCurve.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21629"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\Visual Studio 2017\Projects\Highlander\FpML.V5r3.Applications\ExcelAPI\Spreadsheets\Rates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\Visual Studio 2019\Projects\Highlander\FpML.V5r3.Applications\ExcelAPI\Spreadsheets\Rates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22E43ACF-2206-45B9-9A9F-D0B422B11FCD}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC9B38DB-BEAF-412A-9AF9-80A68F581B33}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="135" windowWidth="18960" windowHeight="11835" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2250" yWindow="420" windowWidth="26370" windowHeight="14820" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AUD Zero Curve" sheetId="5" r:id="rId1"/>
@@ -30,7 +30,15 @@
     <definedName name="MarketName">'Xccy Spread Curve'!$J$3</definedName>
     <definedName name="PmtConv">'Xccy Spread Curve'!$C$11</definedName>
   </definedNames>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="191029" calcOnSave="0"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -9233,7 +9241,7 @@
   <dimension ref="A1:N44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4:G44"/>
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9306,20 +9314,20 @@
       </c>
       <c r="C4" s="20"/>
       <c r="D4" s="18">
-        <f ca="1">_xll.HLV5r3.Analytics.Rates.DiscountFactorToZeroRate2( 1, E4, (B4-CalcDate)/365, 0.25)</f>
+        <f>_xll.HLV5r3.Analytics.Rates.DiscountFactorToZeroRate2( 1, E4, (B4-CalcDate)/365, 0.25)</f>
         <v>1.83933932044784E-2</v>
       </c>
       <c r="E4" s="19">
-        <f t="array" aca="1" ref="E4:E44" ca="1">_xll.HLV5r3.Financial.Cache.GetValuesFromBase( CurveOut, BaseDate,B4:B44)</f>
+        <f t="array" ref="E4:E44">_xll.HLV5r3.Financial.Cache.GetValuesFromBase( CurveOut, BaseDate,B4:B44)</f>
         <v>0.99989945035525496</v>
       </c>
       <c r="F4" s="26"/>
       <c r="G4" s="18">
-        <f ca="1">_xll.HLV5r3.Analytics.Rates.DiscountFactorToZeroRate2( 1, H4, (B4-CalcDate)/365, 0.25)</f>
+        <f>_xll.HLV5r3.Analytics.Rates.DiscountFactorToZeroRate2( 1, H4, (B4-CalcDate)/365, 0.25)</f>
         <v>1.87930464134425E-2</v>
       </c>
       <c r="H4" s="19">
-        <f t="array" aca="1" ref="H4:H44" ca="1">_xll.HLV5r3.Financial.Cache.GetValuesFromBase( AUD_Curve, BaseDate,B4:B44)</f>
+        <f t="array" ref="H4:H44">_xll.HLV5r3.Financial.Cache.GetValuesFromBase( AUD_Curve, BaseDate,B4:B44)</f>
         <v>0.99989727082834001</v>
       </c>
       <c r="I4" s="19"/>
@@ -9329,164 +9337,156 @@
       <c r="A5" s="21">
         <v>1</v>
       </c>
-      <c r="B5" s="25" t="e">
-        <f ca="1">_xll.Orion.ExcelAPI.Cache.Roll(BusCal,EDATE($B$4,(A5*3)),PmtConv)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="C5" s="19" t="e">
-        <f ca="1">(B5-B4)/365</f>
-        <v>#NAME?</v>
+      <c r="B5" s="25">
+        <f>_xll.HLV5r3.Financial.Cache.Roll(BusCal,EDATE($B$4,(A5*3)),PmtConv)</f>
+        <v>40322</v>
+      </c>
+      <c r="C5" s="19">
+        <f>(B5-B4)/365</f>
+        <v>0.24657534246575341</v>
       </c>
       <c r="D5" s="18">
-        <f ca="1">_xll.HLV5r3.Analytics.Rates.DiscountFactorToZeroRate2( 1, E5, (B5-CalcDate)/365, 0.25)</f>
-        <v>-4.66293670342566E-14</v>
+        <f>_xll.HLV5r3.Analytics.Rates.DiscountFactorToZeroRate2( 1, E5, (B5-CalcDate)/365, 0.25)</f>
+        <v>4.0357343662533303E-2</v>
       </c>
       <c r="E5" s="19">
-        <f ca="1"/>
-        <v>0.99989945035525496</v>
-      </c>
-      <c r="F5" s="26" t="e">
-        <f ca="1">(0.0001*SUMPRODUCT(E$5:E5,C$5:C5)/E$4)*10^6</f>
-        <v>#NAME?</v>
+        <v>0.98992975902528002</v>
+      </c>
+      <c r="F5" s="26">
+        <f>(0.0001*SUMPRODUCT(E$5:E5,C$5:C5)/E$4)*10^6</f>
+        <v>24.411681520774465</v>
       </c>
       <c r="G5" s="18">
-        <f ca="1">_xll.HLV5r3.Analytics.Rates.DiscountFactorToZeroRate2( 1, H5, (B5-CalcDate)/365, 0.25)</f>
-        <v>-4.79616346638068E-14</v>
+        <f>_xll.HLV5r3.Analytics.Rates.DiscountFactorToZeroRate2( 1, H5, (B5-CalcDate)/365, 0.25)</f>
+        <v>4.1105711825242301E-2</v>
       </c>
       <c r="H5" s="19">
-        <f ca="1"/>
-        <v>0.99989727082834001</v>
-      </c>
-      <c r="I5" s="18" t="e">
-        <f ca="1">(H4/H5-1)/C5</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="J5" s="12" t="e">
-        <f ca="1">-(E5-E$4+SUMPRODUCT(I$5:I5,C$5:C5,E$5:E5))*10^6/F5</f>
-        <v>#NAME?</v>
+        <v>0.98974492833061511</v>
+      </c>
+      <c r="I5" s="18">
+        <f>(H4/H5-1)/C5</f>
+        <v>4.1599999999997465E-2</v>
+      </c>
+      <c r="J5" s="12">
+        <f>-(E5-E$4+SUMPRODUCT(I$5:I5,C$5:C5,E$5:E5))*10^6/F5</f>
+        <v>-7.5597854565355211</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="21">
         <v>2</v>
       </c>
-      <c r="B6" s="25" t="e">
-        <f ca="1">_xll.Orion.ExcelAPI.Cache.Roll(BusCal,EDATE($B$4,(A6*3)),PmtConv)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="C6" s="19" t="e">
-        <f ca="1">(B6-B5)/365</f>
-        <v>#NAME?</v>
+      <c r="B6" s="25">
+        <f>_xll.HLV5r3.Financial.Cache.Roll(BusCal,EDATE($B$4,(A6*3)),PmtConv)</f>
+        <v>40413</v>
+      </c>
+      <c r="C6" s="19">
+        <f>(B6-B5)/365</f>
+        <v>0.24931506849315069</v>
       </c>
       <c r="D6" s="18">
-        <f ca="1">_xll.HLV5r3.Analytics.Rates.DiscountFactorToZeroRate2( 1, E6, (B6-CalcDate)/365, 0.25)</f>
-        <v>-4.66293670342566E-14</v>
+        <f>_xll.HLV5r3.Analytics.Rates.DiscountFactorToZeroRate2( 1, E6, (B6-CalcDate)/365, 0.25)</f>
+        <v>4.3497514717111101E-2</v>
       </c>
       <c r="E6" s="19">
-        <f ca="1"/>
-        <v>0.99989945035525496</v>
-      </c>
-      <c r="F6" s="26" t="e">
-        <f ca="1">(0.0001*SUMPRODUCT(E$5:E6,C$5:C6)/E$4)*10^6</f>
-        <v>#NAME?</v>
+        <v>0.97854293024545613</v>
+      </c>
+      <c r="F6" s="26">
+        <f>(0.0001*SUMPRODUCT(E$5:E6,C$5:C6)/E$4)*10^6</f>
+        <v>48.810684599629596</v>
       </c>
       <c r="G6" s="18">
-        <f ca="1">_xll.HLV5r3.Analytics.Rates.DiscountFactorToZeroRate2( 1, H6, (B6-CalcDate)/365, 0.25)</f>
-        <v>-4.79616346638068E-14</v>
+        <f>_xll.HLV5r3.Analytics.Rates.DiscountFactorToZeroRate2( 1, H6, (B6-CalcDate)/365, 0.25)</f>
+        <v>4.3490783605800901E-2</v>
       </c>
       <c r="H6" s="19">
-        <f ca="1"/>
-        <v>0.99989727082834001</v>
-      </c>
-      <c r="I6" s="18" t="e">
-        <f ca="1">(H5/H6-1)/C6</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="J6" s="12" t="e">
-        <f ca="1">-(E6-E$4+SUMPRODUCT(I$5:I6,C$5:C6,E$5:E6))*10^6/F6</f>
-        <v>#NAME?</v>
+        <v>0.97854619709233104</v>
+      </c>
+      <c r="I6" s="18">
+        <f>(H5/H6-1)/C6</f>
+        <v>4.5902777065862641E-2</v>
+      </c>
+      <c r="J6" s="12">
+        <f>-(E6-E$4+SUMPRODUCT(I$5:I6,C$5:C6,E$5:E6))*10^6/F6</f>
+        <v>7.3505488896832435E-2</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="21">
         <v>3</v>
       </c>
-      <c r="B7" s="25" t="e">
-        <f ca="1">_xll.Orion.ExcelAPI.Cache.Roll(BusCal,EDATE($B$4,(A7*3)),PmtConv)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="C7" s="19" t="e">
-        <f t="shared" ref="C7:C44" ca="1" si="0">(B7-B6)/365</f>
-        <v>#NAME?</v>
+      <c r="B7" s="25">
+        <f>_xll.HLV5r3.Financial.Cache.Roll(BusCal,EDATE($B$4,(A7*3)),PmtConv)</f>
+        <v>40505</v>
+      </c>
+      <c r="C7" s="19">
+        <f t="shared" ref="C7:C44" si="0">(B7-B6)/365</f>
+        <v>0.25205479452054796</v>
       </c>
       <c r="D7" s="18">
-        <f ca="1">_xll.HLV5r3.Analytics.Rates.DiscountFactorToZeroRate2( 1, E7, (B7-CalcDate)/365, 0.25)</f>
-        <v>-4.66293670342566E-14</v>
+        <f>_xll.HLV5r3.Analytics.Rates.DiscountFactorToZeroRate2( 1, E7, (B7-CalcDate)/365, 0.25)</f>
+        <v>4.6947277237039002E-2</v>
       </c>
       <c r="E7" s="19">
-        <f ca="1"/>
-        <v>0.99989945035525496</v>
-      </c>
-      <c r="F7" s="26" t="e">
-        <f ca="1">(0.0001*SUMPRODUCT(E$5:E7,C$5:C7)/E$4)*10^6</f>
-        <v>#NAME?</v>
+        <v>0.96544584058362781</v>
+      </c>
+      <c r="F7" s="26">
+        <f>(0.0001*SUMPRODUCT(E$5:E7,C$5:C7)/E$4)*10^6</f>
+        <v>73.147656970458058</v>
       </c>
       <c r="G7" s="18">
-        <f ca="1">_xll.HLV5r3.Analytics.Rates.DiscountFactorToZeroRate2( 1, H7, (B7-CalcDate)/365, 0.25)</f>
-        <v>-4.79616346638068E-14</v>
+        <f>_xll.HLV5r3.Analytics.Rates.DiscountFactorToZeroRate2( 1, H7, (B7-CalcDate)/365, 0.25)</f>
+        <v>4.46087491989084E-2</v>
       </c>
       <c r="H7" s="19">
-        <f ca="1"/>
-        <v>0.99989727082834001</v>
-      </c>
-      <c r="I7" s="18" t="e">
-        <f t="shared" ref="I7:I44" ca="1" si="1">(H6/H7-1)/C7</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="J7" s="12" t="e">
-        <f ca="1">-(E7-E$4+SUMPRODUCT(I$5:I7,C$5:C7,E$5:E7))*10^6/F7</f>
-        <v>#NAME?</v>
+        <v>0.9671290827371033</v>
+      </c>
+      <c r="I7" s="18">
+        <f t="shared" ref="I7:I44" si="1">(H6/H7-1)/C7</f>
+        <v>4.6835692382945285E-2</v>
+      </c>
+      <c r="J7" s="12">
+        <f>-(E7-E$4+SUMPRODUCT(I$5:I7,C$5:C7,E$5:E7))*10^6/F7</f>
+        <v>23.287609948244196</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="21">
         <v>4</v>
       </c>
-      <c r="B8" s="25" t="e">
-        <f ca="1">_xll.Orion.ExcelAPI.Cache.Roll(BusCal,EDATE($B$4,(A8*3)),PmtConv)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="C8" s="19" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
+      <c r="B8" s="25">
+        <f>_xll.HLV5r3.Financial.Cache.Roll(BusCal,EDATE($B$4,(A8*3)),PmtConv)</f>
+        <v>40597</v>
+      </c>
+      <c r="C8" s="19">
+        <f t="shared" si="0"/>
+        <v>0.25205479452054796</v>
       </c>
       <c r="D8" s="18">
-        <f ca="1">_xll.HLV5r3.Analytics.Rates.DiscountFactorToZeroRate2( 1, E8, (B8-CalcDate)/365, 0.25)</f>
-        <v>-4.66293670342566E-14</v>
+        <f>_xll.HLV5r3.Analytics.Rates.DiscountFactorToZeroRate2( 1, E8, (B8-CalcDate)/365, 0.25)</f>
+        <v>4.6852688487331498E-2</v>
       </c>
       <c r="E8" s="19">
-        <f ca="1"/>
-        <v>0.99989945035525496</v>
-      </c>
-      <c r="F8" s="26" t="e">
-        <f ca="1">(0.0001*SUMPRODUCT(E$5:E8,C$5:C8)/E$4)*10^6</f>
-        <v>#NAME?</v>
+        <v>0.95424421388554981</v>
+      </c>
+      <c r="F8" s="26">
+        <f>(0.0001*SUMPRODUCT(E$5:E8,C$5:C8)/E$4)*10^6</f>
+        <v>97.202258577438542</v>
       </c>
       <c r="G8" s="18">
-        <f ca="1">_xll.HLV5r3.Analytics.Rates.DiscountFactorToZeroRate2( 1, H8, (B8-CalcDate)/365, 0.25)</f>
-        <v>-4.79616346638068E-14</v>
+        <f>_xll.HLV5r3.Analytics.Rates.DiscountFactorToZeroRate2( 1, H8, (B8-CalcDate)/365, 0.25)</f>
+        <v>4.6043800277755197E-2</v>
       </c>
       <c r="H8" s="19">
-        <f ca="1"/>
-        <v>0.99989727082834001</v>
-      </c>
-      <c r="I8" s="18" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="J8" s="12" t="e">
-        <f ca="1">-(E8-E$4+SUMPRODUCT(I$5:I8,C$5:C8,E$5:E8))*10^6/F8</f>
-        <v>#NAME?</v>
+        <v>0.95501171998886325</v>
+      </c>
+      <c r="I8" s="18">
+        <f t="shared" si="1"/>
+        <v>5.0338983902267265E-2</v>
+      </c>
+      <c r="J8" s="12">
+        <f>-(E8-E$4+SUMPRODUCT(I$5:I8,C$5:C8,E$5:E8))*10^6/F8</f>
+        <v>8.2038866480734924</v>
       </c>
       <c r="K8" s="52">
         <f>'Xccy Spread Curve'!G2</f>
@@ -9497,164 +9497,156 @@
       <c r="A9" s="21">
         <v>5</v>
       </c>
-      <c r="B9" s="25" t="e">
-        <f ca="1">_xll.Orion.ExcelAPI.Cache.Roll(BusCal,EDATE($B$4,(A9*3)),PmtConv)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="C9" s="19" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
+      <c r="B9" s="25">
+        <f>_xll.HLV5r3.Financial.Cache.Roll(BusCal,EDATE($B$4,(A9*3)),PmtConv)</f>
+        <v>40686</v>
+      </c>
+      <c r="C9" s="19">
+        <f t="shared" si="0"/>
+        <v>0.24383561643835616</v>
       </c>
       <c r="D9" s="18">
-        <f ca="1">_xll.HLV5r3.Analytics.Rates.DiscountFactorToZeroRate2( 1, E9, (B9-CalcDate)/365, 0.25)</f>
-        <v>-4.66293670342566E-14</v>
+        <f>_xll.HLV5r3.Analytics.Rates.DiscountFactorToZeroRate2( 1, E9, (B9-CalcDate)/365, 0.25)</f>
+        <v>4.8231506087479802E-2</v>
       </c>
       <c r="E9" s="19">
-        <f ca="1"/>
-        <v>0.99989945035525496</v>
-      </c>
-      <c r="F9" s="26" t="e">
-        <f ca="1">(0.0001*SUMPRODUCT(E$5:E9,C$5:C9)/E$4)*10^6</f>
-        <v>#NAME?</v>
+        <v>0.9418625201952926</v>
+      </c>
+      <c r="F9" s="26">
+        <f>(0.0001*SUMPRODUCT(E$5:E9,C$5:C9)/E$4)*10^6</f>
+        <v>120.17053085025626</v>
       </c>
       <c r="G9" s="18">
-        <f ca="1">_xll.HLV5r3.Analytics.Rates.DiscountFactorToZeroRate2( 1, H9, (B9-CalcDate)/365, 0.25)</f>
-        <v>-4.79616346638068E-14</v>
+        <f>_xll.HLV5r3.Analytics.Rates.DiscountFactorToZeroRate2( 1, H9, (B9-CalcDate)/365, 0.25)</f>
+        <v>4.7223304987081598E-2</v>
       </c>
       <c r="H9" s="19">
-        <f ca="1"/>
-        <v>0.99989727082834001</v>
-      </c>
-      <c r="I9" s="18" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="J9" s="12" t="e">
-        <f ca="1">-(E9-E$4+SUMPRODUCT(I$5:I9,C$5:C9,E$5:E9))*10^6/F9</f>
-        <v>#NAME?</v>
+        <v>0.94303559500804934</v>
+      </c>
+      <c r="I9" s="18">
+        <f t="shared" si="1"/>
+        <v>5.2082412372908254E-2</v>
+      </c>
+      <c r="J9" s="12">
+        <f>-(E9-E$4+SUMPRODUCT(I$5:I9,C$5:C9,E$5:E9))*10^6/F9</f>
+        <v>10.134785383735561</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="21">
         <v>6</v>
       </c>
-      <c r="B10" s="25" t="e">
-        <f ca="1">_xll.Orion.ExcelAPI.Cache.Roll(BusCal,EDATE($B$4,(A10*3)),PmtConv)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="C10" s="19" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
+      <c r="B10" s="25">
+        <f>_xll.HLV5r3.Financial.Cache.Roll(BusCal,EDATE($B$4,(A10*3)),PmtConv)</f>
+        <v>40778</v>
+      </c>
+      <c r="C10" s="19">
+        <f t="shared" si="0"/>
+        <v>0.25205479452054796</v>
       </c>
       <c r="D10" s="18">
-        <f ca="1">_xll.HLV5r3.Analytics.Rates.DiscountFactorToZeroRate2( 1, E10, (B10-CalcDate)/365, 0.25)</f>
-        <v>-4.66293670342566E-14</v>
+        <f>_xll.HLV5r3.Analytics.Rates.DiscountFactorToZeroRate2( 1, E10, (B10-CalcDate)/365, 0.25)</f>
+        <v>4.9599271430413899E-2</v>
       </c>
       <c r="E10" s="19">
-        <f ca="1"/>
-        <v>0.99989945035525496</v>
-      </c>
-      <c r="F10" s="26" t="e">
-        <f ca="1">(0.0001*SUMPRODUCT(E$5:E10,C$5:C10)/E$4)*10^6</f>
-        <v>#NAME?</v>
+        <v>0.92866338684172423</v>
+      </c>
+      <c r="F10" s="26">
+        <f>(0.0001*SUMPRODUCT(E$5:E10,C$5:C10)/E$4)*10^6</f>
+        <v>143.58029060819817</v>
       </c>
       <c r="G10" s="18">
-        <f ca="1">_xll.HLV5r3.Analytics.Rates.DiscountFactorToZeroRate2( 1, H10, (B10-CalcDate)/365, 0.25)</f>
-        <v>-4.79616346638068E-14</v>
+        <f>_xll.HLV5r3.Analytics.Rates.DiscountFactorToZeroRate2( 1, H10, (B10-CalcDate)/365, 0.25)</f>
+        <v>4.8364791950745299E-2</v>
       </c>
       <c r="H10" s="19">
-        <f ca="1"/>
-        <v>0.99989727082834001</v>
-      </c>
-      <c r="I10" s="18" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="J10" s="12" t="e">
-        <f ca="1">-(E10-E$4+SUMPRODUCT(I$5:I10,C$5:C10,E$5:E10))*10^6/F10</f>
-        <v>#NAME?</v>
+        <v>0.9303653168383873</v>
+      </c>
+      <c r="I10" s="18">
+        <f t="shared" si="1"/>
+        <v>5.4030336819527909E-2</v>
+      </c>
+      <c r="J10" s="12">
+        <f>-(E10-E$4+SUMPRODUCT(I$5:I10,C$5:C10,E$5:E10))*10^6/F10</f>
+        <v>12.3271490059355</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="21">
         <v>7</v>
       </c>
-      <c r="B11" s="25" t="e">
-        <f ca="1">_xll.Orion.ExcelAPI.Cache.Roll(BusCal,EDATE($B$4,(A11*3)),PmtConv)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="C11" s="19" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
+      <c r="B11" s="25">
+        <f>_xll.HLV5r3.Financial.Cache.Roll(BusCal,EDATE($B$4,(A11*3)),PmtConv)</f>
+        <v>40870</v>
+      </c>
+      <c r="C11" s="19">
+        <f t="shared" si="0"/>
+        <v>0.25205479452054796</v>
       </c>
       <c r="D11" s="18">
-        <f ca="1">_xll.HLV5r3.Analytics.Rates.DiscountFactorToZeroRate2( 1, E11, (B11-CalcDate)/365, 0.25)</f>
-        <v>-4.66293670342566E-14</v>
+        <f>_xll.HLV5r3.Analytics.Rates.DiscountFactorToZeroRate2( 1, E11, (B11-CalcDate)/365, 0.25)</f>
+        <v>5.0817022006688403E-2</v>
       </c>
       <c r="E11" s="19">
-        <f ca="1"/>
-        <v>0.99989945035525496</v>
-      </c>
-      <c r="F11" s="26" t="e">
-        <f ca="1">(0.0001*SUMPRODUCT(E$5:E11,C$5:C11)/E$4)*10^6</f>
-        <v>#NAME?</v>
+        <v>0.91526414795571465</v>
+      </c>
+      <c r="F11" s="26">
+        <f>(0.0001*SUMPRODUCT(E$5:E11,C$5:C11)/E$4)*10^6</f>
+        <v>166.65228216325281</v>
       </c>
       <c r="G11" s="18">
-        <f ca="1">_xll.HLV5r3.Analytics.Rates.DiscountFactorToZeroRate2( 1, H11, (B11-CalcDate)/365, 0.25)</f>
-        <v>-4.79616346638068E-14</v>
+        <f>_xll.HLV5r3.Analytics.Rates.DiscountFactorToZeroRate2( 1, H11, (B11-CalcDate)/365, 0.25)</f>
+        <v>4.93562521583071E-2</v>
       </c>
       <c r="H11" s="19">
-        <f ca="1"/>
-        <v>0.99989727082834001</v>
-      </c>
-      <c r="I11" s="18" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="J11" s="12" t="e">
-        <f ca="1">-(E11-E$4+SUMPRODUCT(I$5:I11,C$5:C11,E$5:E11))*10^6/F11</f>
-        <v>#NAME?</v>
+        <v>0.91758239901302574</v>
+      </c>
+      <c r="I11" s="18">
+        <f t="shared" si="1"/>
+        <v>5.5270063025492012E-2</v>
+      </c>
+      <c r="J11" s="12">
+        <f>-(E11-E$4+SUMPRODUCT(I$5:I11,C$5:C11,E$5:E11))*10^6/F11</f>
+        <v>14.512567226728999</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="21">
         <v>8</v>
       </c>
-      <c r="B12" s="25" t="e">
-        <f ca="1">_xll.Orion.ExcelAPI.Cache.Roll(BusCal,EDATE($B$4,(A12*3)),PmtConv)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="C12" s="19" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
+      <c r="B12" s="25">
+        <f>_xll.HLV5r3.Financial.Cache.Roll(BusCal,EDATE($B$4,(A12*3)),PmtConv)</f>
+        <v>40962</v>
+      </c>
+      <c r="C12" s="19">
+        <f t="shared" si="0"/>
+        <v>0.25205479452054796</v>
       </c>
       <c r="D12" s="18">
-        <f ca="1">_xll.HLV5r3.Analytics.Rates.DiscountFactorToZeroRate2( 1, E12, (B12-CalcDate)/365, 0.25)</f>
-        <v>-4.66293670342566E-14</v>
+        <f>_xll.HLV5r3.Analytics.Rates.DiscountFactorToZeroRate2( 1, E12, (B12-CalcDate)/365, 0.25)</f>
+        <v>5.2093285063865097E-2</v>
       </c>
       <c r="E12" s="19">
-        <f ca="1"/>
-        <v>0.99989945035525496</v>
-      </c>
-      <c r="F12" s="26" t="e">
-        <f ca="1">(0.0001*SUMPRODUCT(E$5:E12,C$5:C12)/E$4)*10^6</f>
-        <v>#NAME?</v>
+        <v>0.90140774570723081</v>
+      </c>
+      <c r="F12" s="26">
+        <f>(0.0001*SUMPRODUCT(E$5:E12,C$5:C12)/E$4)*10^6</f>
+        <v>189.3749813349288</v>
       </c>
       <c r="G12" s="18">
-        <f ca="1">_xll.HLV5r3.Analytics.Rates.DiscountFactorToZeroRate2( 1, H12, (B12-CalcDate)/365, 0.25)</f>
-        <v>-4.79616346638068E-14</v>
+        <f>_xll.HLV5r3.Analytics.Rates.DiscountFactorToZeroRate2( 1, H12, (B12-CalcDate)/365, 0.25)</f>
+        <v>5.0406217462356302E-2</v>
       </c>
       <c r="H12" s="19">
-        <f ca="1"/>
-        <v>0.99989727082834001</v>
-      </c>
-      <c r="I12" s="18" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="J12" s="12" t="e">
-        <f ca="1">-(E12-E$4+SUMPRODUCT(I$5:I12,C$5:C12,E$5:E12))*10^6/F12</f>
-        <v>#NAME?</v>
+        <v>0.90442400426478298</v>
+      </c>
+      <c r="I12" s="18">
+        <f t="shared" si="1"/>
+        <v>5.7721268627531061E-2</v>
+      </c>
+      <c r="J12" s="12">
+        <f>-(E12-E$4+SUMPRODUCT(I$5:I12,C$5:C12,E$5:E12))*10^6/F12</f>
+        <v>16.688810941913175</v>
       </c>
       <c r="K12" s="52">
         <f>'Xccy Spread Curve'!G3</f>
@@ -9665,164 +9657,156 @@
       <c r="A13" s="21">
         <v>9</v>
       </c>
-      <c r="B13" s="25" t="e">
-        <f ca="1">_xll.Orion.ExcelAPI.Cache.Roll(BusCal,EDATE($B$4,(A13*3)),PmtConv)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="C13" s="19" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
+      <c r="B13" s="25">
+        <f>_xll.HLV5r3.Financial.Cache.Roll(BusCal,EDATE($B$4,(A13*3)),PmtConv)</f>
+        <v>41052</v>
+      </c>
+      <c r="C13" s="19">
+        <f t="shared" si="0"/>
+        <v>0.24657534246575341</v>
       </c>
       <c r="D13" s="18">
-        <f ca="1">_xll.HLV5r3.Analytics.Rates.DiscountFactorToZeroRate2( 1, E13, (B13-CalcDate)/365, 0.25)</f>
-        <v>-4.66293670342566E-14</v>
+        <f>_xll.HLV5r3.Analytics.Rates.DiscountFactorToZeroRate2( 1, E13, (B13-CalcDate)/365, 0.25)</f>
+        <v>5.28243786253721E-2</v>
       </c>
       <c r="E13" s="19">
-        <f ca="1"/>
-        <v>0.99989945035525496</v>
-      </c>
-      <c r="F13" s="26" t="e">
-        <f ca="1">(0.0001*SUMPRODUCT(E$5:E13,C$5:C13)/E$4)*10^6</f>
-        <v>#NAME?</v>
+        <v>0.88853190587152253</v>
+      </c>
+      <c r="F13" s="26">
+        <f>(0.0001*SUMPRODUCT(E$5:E13,C$5:C13)/E$4)*10^6</f>
+        <v>211.2861903974179</v>
       </c>
       <c r="G13" s="18">
-        <f ca="1">_xll.HLV5r3.Analytics.Rates.DiscountFactorToZeroRate2( 1, H13, (B13-CalcDate)/365, 0.25)</f>
-        <v>-4.79616346638068E-14</v>
+        <f>_xll.HLV5r3.Analytics.Rates.DiscountFactorToZeroRate2( 1, H13, (B13-CalcDate)/365, 0.25)</f>
+        <v>5.0936919277646098E-2</v>
       </c>
       <c r="H13" s="19">
-        <f ca="1"/>
-        <v>0.99989727082834001</v>
-      </c>
-      <c r="I13" s="18" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="J13" s="12" t="e">
-        <f ca="1">-(E13-E$4+SUMPRODUCT(I$5:I13,C$5:C13,E$5:E13))*10^6/F13</f>
-        <v>#NAME?</v>
+        <v>0.89226822928487892</v>
+      </c>
+      <c r="I13" s="18">
+        <f t="shared" si="1"/>
+        <v>5.5250673658238068E-2</v>
+      </c>
+      <c r="J13" s="12">
+        <f>-(E13-E$4+SUMPRODUCT(I$5:I13,C$5:C13,E$5:E13))*10^6/F13</f>
+        <v>18.607035975047854</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="21">
         <v>10</v>
       </c>
-      <c r="B14" s="25" t="e">
-        <f ca="1">_xll.Orion.ExcelAPI.Cache.Roll(BusCal,EDATE($B$4,(A14*3)),PmtConv)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="C14" s="19" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
+      <c r="B14" s="25">
+        <f>_xll.HLV5r3.Financial.Cache.Roll(BusCal,EDATE($B$4,(A14*3)),PmtConv)</f>
+        <v>41144</v>
+      </c>
+      <c r="C14" s="19">
+        <f t="shared" si="0"/>
+        <v>0.25205479452054796</v>
       </c>
       <c r="D14" s="18">
-        <f ca="1">_xll.HLV5r3.Analytics.Rates.DiscountFactorToZeroRate2( 1, E14, (B14-CalcDate)/365, 0.25)</f>
-        <v>-4.66293670342566E-14</v>
+        <f>_xll.HLV5r3.Analytics.Rates.DiscountFactorToZeroRate2( 1, E14, (B14-CalcDate)/365, 0.25)</f>
+        <v>5.3720395256841698E-2</v>
       </c>
       <c r="E14" s="19">
-        <f ca="1"/>
-        <v>0.99989945035525496</v>
-      </c>
-      <c r="F14" s="26" t="e">
-        <f ca="1">(0.0001*SUMPRODUCT(E$5:E14,C$5:C14)/E$4)*10^6</f>
-        <v>#NAME?</v>
+        <v>0.87491683414480526</v>
+      </c>
+      <c r="F14" s="26">
+        <f>(0.0001*SUMPRODUCT(E$5:E14,C$5:C14)/E$4)*10^6</f>
+        <v>233.3411062966702</v>
       </c>
       <c r="G14" s="18">
-        <f ca="1">_xll.HLV5r3.Analytics.Rates.DiscountFactorToZeroRate2( 1, H14, (B14-CalcDate)/365, 0.25)</f>
-        <v>-4.79616346638068E-14</v>
+        <f>_xll.HLV5r3.Analytics.Rates.DiscountFactorToZeroRate2( 1, H14, (B14-CalcDate)/365, 0.25)</f>
+        <v>5.1628334064663897E-2</v>
       </c>
       <c r="H14" s="19">
-        <f ca="1"/>
-        <v>0.99989727082834001</v>
-      </c>
-      <c r="I14" s="18" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="J14" s="12" t="e">
-        <f ca="1">-(E14-E$4+SUMPRODUCT(I$5:I14,C$5:C14,E$5:E14))*10^6/F14</f>
-        <v>#NAME?</v>
+        <v>0.87945244783589338</v>
+      </c>
+      <c r="I14" s="18">
+        <f t="shared" si="1"/>
+        <v>5.7814632279714735E-2</v>
+      </c>
+      <c r="J14" s="12">
+        <f>-(E14-E$4+SUMPRODUCT(I$5:I14,C$5:C14,E$5:E14))*10^6/F14</f>
+        <v>20.557008266587481</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="21">
         <v>11</v>
       </c>
-      <c r="B15" s="25" t="e">
-        <f ca="1">_xll.Orion.ExcelAPI.Cache.Roll(BusCal,EDATE($B$4,(A15*3)),PmtConv)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="C15" s="19" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
+      <c r="B15" s="25">
+        <f>_xll.HLV5r3.Financial.Cache.Roll(BusCal,EDATE($B$4,(A15*3)),PmtConv)</f>
+        <v>41236</v>
+      </c>
+      <c r="C15" s="19">
+        <f t="shared" si="0"/>
+        <v>0.25205479452054796</v>
       </c>
       <c r="D15" s="18">
-        <f ca="1">_xll.HLV5r3.Analytics.Rates.DiscountFactorToZeroRate2( 1, E15, (B15-CalcDate)/365, 0.25)</f>
-        <v>-4.66293670342566E-14</v>
+        <f>_xll.HLV5r3.Analytics.Rates.DiscountFactorToZeroRate2( 1, E15, (B15-CalcDate)/365, 0.25)</f>
+        <v>5.4615399917583601E-2</v>
       </c>
       <c r="E15" s="19">
-        <f ca="1"/>
-        <v>0.99989945035525496</v>
-      </c>
-      <c r="F15" s="26" t="e">
-        <f ca="1">(0.0001*SUMPRODUCT(E$5:E15,C$5:C15)/E$4)*10^6</f>
-        <v>#NAME?</v>
+        <v>0.86112928484088147</v>
+      </c>
+      <c r="F15" s="26">
+        <f>(0.0001*SUMPRODUCT(E$5:E15,C$5:C15)/E$4)*10^6</f>
+        <v>255.04846545854178</v>
       </c>
       <c r="G15" s="18">
-        <f ca="1">_xll.HLV5r3.Analytics.Rates.DiscountFactorToZeroRate2( 1, H15, (B15-CalcDate)/365, 0.25)</f>
-        <v>-4.79616346638068E-14</v>
+        <f>_xll.HLV5r3.Analytics.Rates.DiscountFactorToZeroRate2( 1, H15, (B15-CalcDate)/365, 0.25)</f>
+        <v>5.2318738279375103E-2</v>
       </c>
       <c r="H15" s="19">
-        <f ca="1"/>
-        <v>0.99989727082834001</v>
-      </c>
-      <c r="I15" s="18" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="J15" s="12" t="e">
-        <f ca="1">-(E15-E$4+SUMPRODUCT(I$5:I15,C$5:C15,E$5:E15))*10^6/F15</f>
-        <v>#NAME?</v>
+        <v>0.86652514837594008</v>
+      </c>
+      <c r="I15" s="18">
+        <f t="shared" si="1"/>
+        <v>5.9187728783455636E-2</v>
+      </c>
+      <c r="J15" s="12">
+        <f>-(E15-E$4+SUMPRODUCT(I$5:I15,C$5:C15,E$5:E15))*10^6/F15</f>
+        <v>22.495894453150513</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="21">
         <v>12</v>
       </c>
-      <c r="B16" s="25" t="e">
-        <f ca="1">_xll.Orion.ExcelAPI.Cache.Roll(BusCal,EDATE($B$4,(A16*3)),PmtConv)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="C16" s="19" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
+      <c r="B16" s="25">
+        <f>_xll.HLV5r3.Financial.Cache.Roll(BusCal,EDATE($B$4,(A16*3)),PmtConv)</f>
+        <v>41330</v>
+      </c>
+      <c r="C16" s="19">
+        <f t="shared" si="0"/>
+        <v>0.25753424657534246</v>
       </c>
       <c r="D16" s="18">
-        <f ca="1">_xll.HLV5r3.Analytics.Rates.DiscountFactorToZeroRate2( 1, E16, (B16-CalcDate)/365, 0.25)</f>
-        <v>-4.66293670342566E-14</v>
+        <f>_xll.HLV5r3.Analytics.Rates.DiscountFactorToZeroRate2( 1, E16, (B16-CalcDate)/365, 0.25)</f>
+        <v>5.5529080143980301E-2</v>
       </c>
       <c r="E16" s="19">
-        <f ca="1"/>
-        <v>0.99989945035525496</v>
-      </c>
-      <c r="F16" s="26" t="e">
-        <f ca="1">(0.0001*SUMPRODUCT(E$5:E16,C$5:C16)/E$4)*10^6</f>
-        <v>#NAME?</v>
+        <v>0.84687940970884401</v>
+      </c>
+      <c r="F16" s="26">
+        <f>(0.0001*SUMPRODUCT(E$5:E16,C$5:C16)/E$4)*10^6</f>
+        <v>276.86070374330615</v>
       </c>
       <c r="G16" s="18">
-        <f ca="1">_xll.HLV5r3.Analytics.Rates.DiscountFactorToZeroRate2( 1, H16, (B16-CalcDate)/365, 0.25)</f>
-        <v>-4.79616346638068E-14</v>
+        <f>_xll.HLV5r3.Analytics.Rates.DiscountFactorToZeroRate2( 1, H16, (B16-CalcDate)/365, 0.25)</f>
+        <v>5.3023371303264198E-2</v>
       </c>
       <c r="H16" s="19">
-        <f ca="1"/>
-        <v>0.99989727082834001</v>
-      </c>
-      <c r="I16" s="18" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="J16" s="12" t="e">
-        <f ca="1">-(E16-E$4+SUMPRODUCT(I$5:I16,C$5:C16,E$5:E16))*10^6/F16</f>
-        <v>#NAME?</v>
+        <v>0.85321252653302804</v>
+      </c>
+      <c r="I16" s="18">
+        <f t="shared" si="1"/>
+        <v>6.0585874868485635E-2</v>
+      </c>
+      <c r="J16" s="12">
+        <f>-(E16-E$4+SUMPRODUCT(I$5:I16,C$5:C16,E$5:E16))*10^6/F16</f>
+        <v>24.465775690784938</v>
       </c>
       <c r="K16" s="52">
         <f>'Xccy Spread Curve'!G4</f>
@@ -9833,164 +9817,156 @@
       <c r="A17" s="21">
         <v>13</v>
       </c>
-      <c r="B17" s="25" t="e">
-        <f ca="1">_xll.Orion.ExcelAPI.Cache.Roll(BusCal,EDATE($B$4,(A17*3)),PmtConv)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="C17" s="19" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
+      <c r="B17" s="25">
+        <f>_xll.HLV5r3.Financial.Cache.Roll(BusCal,EDATE($B$4,(A17*3)),PmtConv)</f>
+        <v>41417</v>
+      </c>
+      <c r="C17" s="19">
+        <f t="shared" si="0"/>
+        <v>0.23835616438356164</v>
       </c>
       <c r="D17" s="18">
-        <f ca="1">_xll.HLV5r3.Analytics.Rates.DiscountFactorToZeroRate2( 1, E17, (B17-CalcDate)/365, 0.25)</f>
-        <v>-4.66293670342566E-14</v>
+        <f>_xll.HLV5r3.Analytics.Rates.DiscountFactorToZeroRate2( 1, E17, (B17-CalcDate)/365, 0.25)</f>
+        <v>5.6330141002729497E-2</v>
       </c>
       <c r="E17" s="19">
-        <f ca="1"/>
-        <v>0.99989945035525496</v>
-      </c>
-      <c r="F17" s="26" t="e">
-        <f ca="1">(0.0001*SUMPRODUCT(E$5:E17,C$5:C17)/E$4)*10^6</f>
-        <v>#NAME?</v>
+        <v>0.83367569446355816</v>
+      </c>
+      <c r="F17" s="26">
+        <f>(0.0001*SUMPRODUCT(E$5:E17,C$5:C17)/E$4)*10^6</f>
+        <v>296.7338760709373</v>
       </c>
       <c r="G17" s="18">
-        <f ca="1">_xll.HLV5r3.Analytics.Rates.DiscountFactorToZeroRate2( 1, H17, (B17-CalcDate)/365, 0.25)</f>
-        <v>-4.79616346638068E-14</v>
+        <f>_xll.HLV5r3.Analytics.Rates.DiscountFactorToZeroRate2( 1, H17, (B17-CalcDate)/365, 0.25)</f>
+        <v>5.3650566824964101E-2</v>
       </c>
       <c r="H17" s="19">
-        <f ca="1"/>
-        <v>0.99989727082834001</v>
-      </c>
-      <c r="I17" s="18" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="J17" s="12" t="e">
-        <f ca="1">-(E17-E$4+SUMPRODUCT(I$5:I17,C$5:C17,E$5:E17))*10^6/F17</f>
-        <v>#NAME?</v>
+        <v>0.84087281678207848</v>
+      </c>
+      <c r="I17" s="18">
+        <f t="shared" si="1"/>
+        <v>6.1567035612353702E-2</v>
+      </c>
+      <c r="J17" s="12">
+        <f>-(E17-E$4+SUMPRODUCT(I$5:I17,C$5:C17,E$5:E17))*10^6/F17</f>
+        <v>26.094877997494848</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="21">
         <v>14</v>
       </c>
-      <c r="B18" s="25" t="e">
-        <f ca="1">_xll.Orion.ExcelAPI.Cache.Roll(BusCal,EDATE($B$4,(A18*3)),PmtConv)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="C18" s="19" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
+      <c r="B18" s="25">
+        <f>_xll.HLV5r3.Financial.Cache.Roll(BusCal,EDATE($B$4,(A18*3)),PmtConv)</f>
+        <v>41509</v>
+      </c>
+      <c r="C18" s="19">
+        <f t="shared" si="0"/>
+        <v>0.25205479452054796</v>
       </c>
       <c r="D18" s="18">
-        <f ca="1">_xll.HLV5r3.Analytics.Rates.DiscountFactorToZeroRate2( 1, E18, (B18-CalcDate)/365, 0.25)</f>
-        <v>-4.66293670342566E-14</v>
+        <f>_xll.HLV5r3.Analytics.Rates.DiscountFactorToZeroRate2( 1, E18, (B18-CalcDate)/365, 0.25)</f>
+        <v>5.7176788724015999E-2</v>
       </c>
       <c r="E18" s="19">
-        <f ca="1"/>
-        <v>0.99989945035525496</v>
-      </c>
-      <c r="F18" s="26" t="e">
-        <f ca="1">(0.0001*SUMPRODUCT(E$5:E18,C$5:C18)/E$4)*10^6</f>
-        <v>#NAME?</v>
+        <v>0.81960293073651247</v>
+      </c>
+      <c r="F18" s="26">
+        <f>(0.0001*SUMPRODUCT(E$5:E18,C$5:C18)/E$4)*10^6</f>
+        <v>317.39443831265396</v>
       </c>
       <c r="G18" s="18">
-        <f ca="1">_xll.HLV5r3.Analytics.Rates.DiscountFactorToZeroRate2( 1, H18, (B18-CalcDate)/365, 0.25)</f>
-        <v>-4.79616346638068E-14</v>
+        <f>_xll.HLV5r3.Analytics.Rates.DiscountFactorToZeroRate2( 1, H18, (B18-CalcDate)/365, 0.25)</f>
+        <v>5.4313360039290402E-2</v>
       </c>
       <c r="H18" s="19">
-        <f ca="1"/>
-        <v>0.99989727082834001</v>
-      </c>
-      <c r="I18" s="18" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="J18" s="12" t="e">
-        <f ca="1">-(E18-E$4+SUMPRODUCT(I$5:I18,C$5:C18,E$5:E18))*10^6/F18</f>
-        <v>#NAME?</v>
+        <v>0.82775386787904459</v>
+      </c>
+      <c r="I18" s="18">
+        <f t="shared" si="1"/>
+        <v>6.2878599327409648E-2</v>
+      </c>
+      <c r="J18" s="12">
+        <f>-(E18-E$4+SUMPRODUCT(I$5:I18,C$5:C18,E$5:E18))*10^6/F18</f>
+        <v>27.808401951506955</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="21">
         <v>15</v>
       </c>
-      <c r="B19" s="25" t="e">
-        <f ca="1">_xll.Orion.ExcelAPI.Cache.Roll(BusCal,EDATE($B$4,(A19*3)),PmtConv)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="C19" s="19" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
+      <c r="B19" s="25">
+        <f>_xll.HLV5r3.Financial.Cache.Roll(BusCal,EDATE($B$4,(A19*3)),PmtConv)</f>
+        <v>41603</v>
+      </c>
+      <c r="C19" s="19">
+        <f t="shared" si="0"/>
+        <v>0.25753424657534246</v>
       </c>
       <c r="D19" s="18">
-        <f ca="1">_xll.HLV5r3.Analytics.Rates.DiscountFactorToZeroRate2( 1, E19, (B19-CalcDate)/365, 0.25)</f>
-        <v>-4.66293670342566E-14</v>
+        <f>_xll.HLV5r3.Analytics.Rates.DiscountFactorToZeroRate2( 1, E19, (B19-CalcDate)/365, 0.25)</f>
+        <v>5.8041458112247903E-2</v>
       </c>
       <c r="E19" s="19">
-        <f ca="1"/>
-        <v>0.99989945035525496</v>
-      </c>
-      <c r="F19" s="26" t="e">
-        <f ca="1">(0.0001*SUMPRODUCT(E$5:E19,C$5:C19)/E$4)*10^6</f>
-        <v>#NAME?</v>
+        <v>0.80512122872452885</v>
+      </c>
+      <c r="F19" s="26">
+        <f>(0.0001*SUMPRODUCT(E$5:E19,C$5:C19)/E$4)*10^6</f>
+        <v>338.13115228601572</v>
       </c>
       <c r="G19" s="18">
-        <f ca="1">_xll.HLV5r3.Analytics.Rates.DiscountFactorToZeroRate2( 1, H19, (B19-CalcDate)/365, 0.25)</f>
-        <v>-4.79616346638068E-14</v>
+        <f>_xll.HLV5r3.Analytics.Rates.DiscountFactorToZeroRate2( 1, H19, (B19-CalcDate)/365, 0.25)</f>
+        <v>5.4990180712493099E-2</v>
       </c>
       <c r="H19" s="19">
-        <f ca="1"/>
-        <v>0.99989727082834001</v>
-      </c>
-      <c r="I19" s="18" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="J19" s="12" t="e">
-        <f ca="1">-(E19-E$4+SUMPRODUCT(I$5:I19,C$5:C19,E$5:E19))*10^6/F19</f>
-        <v>#NAME?</v>
+        <v>0.8142852787548216</v>
+      </c>
+      <c r="I19" s="18">
+        <f t="shared" si="1"/>
+        <v>6.4225949268792798E-2</v>
+      </c>
+      <c r="J19" s="12">
+        <f>-(E19-E$4+SUMPRODUCT(I$5:I19,C$5:C19,E$5:E19))*10^6/F19</f>
+        <v>29.547475354353512</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="21">
         <v>16</v>
       </c>
-      <c r="B20" s="25" t="e">
-        <f ca="1">_xll.Orion.ExcelAPI.Cache.Roll(BusCal,EDATE($B$4,(A20*3)),PmtConv)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="C20" s="19" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
+      <c r="B20" s="25">
+        <f>_xll.HLV5r3.Financial.Cache.Roll(BusCal,EDATE($B$4,(A20*3)),PmtConv)</f>
+        <v>41694</v>
+      </c>
+      <c r="C20" s="19">
+        <f t="shared" si="0"/>
+        <v>0.24931506849315069</v>
       </c>
       <c r="D20" s="18">
-        <f ca="1">_xll.HLV5r3.Analytics.Rates.DiscountFactorToZeroRate2( 1, E20, (B20-CalcDate)/365, 0.25)</f>
-        <v>-4.66293670342566E-14</v>
+        <f>_xll.HLV5r3.Analytics.Rates.DiscountFactorToZeroRate2( 1, E20, (B20-CalcDate)/365, 0.25)</f>
+        <v>5.8878232101344401E-2</v>
       </c>
       <c r="E20" s="19">
-        <f ca="1"/>
-        <v>0.99989945035525496</v>
-      </c>
-      <c r="F20" s="26" t="e">
-        <f ca="1">(0.0001*SUMPRODUCT(E$5:E20,C$5:C20)/E$4)*10^6</f>
-        <v>#NAME?</v>
+        <v>0.79101609241004123</v>
+      </c>
+      <c r="F20" s="26">
+        <f>(0.0001*SUMPRODUCT(E$5:E20,C$5:C20)/E$4)*10^6</f>
+        <v>357.85435857324052</v>
       </c>
       <c r="G20" s="18">
-        <f ca="1">_xll.HLV5r3.Analytics.Rates.DiscountFactorToZeroRate2( 1, H20, (B20-CalcDate)/365, 0.25)</f>
-        <v>-4.79616346638068E-14</v>
+        <f>_xll.HLV5r3.Analytics.Rates.DiscountFactorToZeroRate2( 1, H20, (B20-CalcDate)/365, 0.25)</f>
+        <v>5.5645103210787597E-2</v>
       </c>
       <c r="H20" s="19">
-        <f ca="1"/>
-        <v>0.99989727082834001</v>
-      </c>
-      <c r="I20" s="18" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="J20" s="12" t="e">
-        <f ca="1">-(E20-E$4+SUMPRODUCT(I$5:I20,C$5:C20,E$5:E20))*10^6/F20</f>
-        <v>#NAME?</v>
+        <v>0.80119409870656577</v>
+      </c>
+      <c r="I20" s="18">
+        <f t="shared" si="1"/>
+        <v>6.5537900739910268E-2</v>
+      </c>
+      <c r="J20" s="12">
+        <f>-(E20-E$4+SUMPRODUCT(I$5:I20,C$5:C20,E$5:E20))*10^6/F20</f>
+        <v>31.217120313493769</v>
       </c>
       <c r="K20" s="52">
         <f>'Xccy Spread Curve'!G5</f>
@@ -10001,164 +9977,156 @@
       <c r="A21" s="21">
         <v>17</v>
       </c>
-      <c r="B21" s="25" t="e">
-        <f ca="1">_xll.Orion.ExcelAPI.Cache.Roll(BusCal,EDATE($B$4,(A21*3)),PmtConv)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="C21" s="19" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
+      <c r="B21" s="25">
+        <f>_xll.HLV5r3.Financial.Cache.Roll(BusCal,EDATE($B$4,(A21*3)),PmtConv)</f>
+        <v>41782</v>
+      </c>
+      <c r="C21" s="19">
+        <f t="shared" si="0"/>
+        <v>0.24109589041095891</v>
       </c>
       <c r="D21" s="18">
-        <f ca="1">_xll.HLV5r3.Analytics.Rates.DiscountFactorToZeroRate2( 1, E21, (B21-CalcDate)/365, 0.25)</f>
-        <v>-4.66293670342566E-14</v>
+        <f>_xll.HLV5r3.Analytics.Rates.DiscountFactorToZeroRate2( 1, E21, (B21-CalcDate)/365, 0.25)</f>
+        <v>5.9361919247342201E-2</v>
       </c>
       <c r="E21" s="19">
-        <f ca="1"/>
-        <v>0.99989945035525496</v>
-      </c>
-      <c r="F21" s="26" t="e">
-        <f ca="1">(0.0001*SUMPRODUCT(E$5:E21,C$5:C21)/E$4)*10^6</f>
-        <v>#NAME?</v>
+        <v>0.77836826689842087</v>
+      </c>
+      <c r="F21" s="26">
+        <f>(0.0001*SUMPRODUCT(E$5:E21,C$5:C21)/E$4)*10^6</f>
+        <v>376.62238472915391</v>
       </c>
       <c r="G21" s="18">
-        <f ca="1">_xll.HLV5r3.Analytics.Rates.DiscountFactorToZeroRate2( 1, H21, (B21-CalcDate)/365, 0.25)</f>
-        <v>-4.79616346638068E-14</v>
+        <f>_xll.HLV5r3.Analytics.Rates.DiscountFactorToZeroRate2( 1, H21, (B21-CalcDate)/365, 0.25)</f>
+        <v>5.6019379847172403E-2</v>
       </c>
       <c r="H21" s="19">
-        <f ca="1"/>
-        <v>0.99989727082834001</v>
-      </c>
-      <c r="I21" s="18" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="J21" s="12" t="e">
-        <f ca="1">-(E21-E$4+SUMPRODUCT(I$5:I21,C$5:C21,E$5:E21))*10^6/F21</f>
-        <v>#NAME?</v>
+        <v>0.78935042027400926</v>
+      </c>
+      <c r="I21" s="18">
+        <f t="shared" si="1"/>
+        <v>6.2233891035458885E-2</v>
+      </c>
+      <c r="J21" s="12">
+        <f>-(E21-E$4+SUMPRODUCT(I$5:I21,C$5:C21,E$5:E21))*10^6/F21</f>
+        <v>32.234168891601222</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="21">
         <v>18</v>
       </c>
-      <c r="B22" s="25" t="e">
-        <f ca="1">_xll.Orion.ExcelAPI.Cache.Roll(BusCal,EDATE($B$4,(A22*3)),PmtConv)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="C22" s="19" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
+      <c r="B22" s="25">
+        <f>_xll.HLV5r3.Financial.Cache.Roll(BusCal,EDATE($B$4,(A22*3)),PmtConv)</f>
+        <v>41876</v>
+      </c>
+      <c r="C22" s="19">
+        <f t="shared" si="0"/>
+        <v>0.25753424657534246</v>
       </c>
       <c r="D22" s="18">
-        <f ca="1">_xll.HLV5r3.Analytics.Rates.DiscountFactorToZeroRate2( 1, E22, (B22-CalcDate)/365, 0.25)</f>
-        <v>-4.66293670342566E-14</v>
+        <f>_xll.HLV5r3.Analytics.Rates.DiscountFactorToZeroRate2( 1, E22, (B22-CalcDate)/365, 0.25)</f>
+        <v>5.9878350729058602E-2</v>
       </c>
       <c r="E22" s="19">
-        <f ca="1"/>
-        <v>0.99989945035525496</v>
-      </c>
-      <c r="F22" s="26" t="e">
-        <f ca="1">(0.0001*SUMPRODUCT(E$5:E22,C$5:C22)/E$4)*10^6</f>
-        <v>#NAME?</v>
+        <v>0.76488819523635909</v>
+      </c>
+      <c r="F22" s="26">
+        <f>(0.0001*SUMPRODUCT(E$5:E22,C$5:C22)/E$4)*10^6</f>
+        <v>396.32285611200973</v>
       </c>
       <c r="G22" s="18">
-        <f ca="1">_xll.HLV5r3.Analytics.Rates.DiscountFactorToZeroRate2( 1, H22, (B22-CalcDate)/365, 0.25)</f>
-        <v>-4.79616346638068E-14</v>
+        <f>_xll.HLV5r3.Analytics.Rates.DiscountFactorToZeroRate2( 1, H22, (B22-CalcDate)/365, 0.25)</f>
+        <v>5.6418947570177701E-2</v>
       </c>
       <c r="H22" s="19">
-        <f ca="1"/>
-        <v>0.99989727082834001</v>
-      </c>
-      <c r="I22" s="18" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="J22" s="12" t="e">
-        <f ca="1">-(E22-E$4+SUMPRODUCT(I$5:I22,C$5:C22,E$5:E22))*10^6/F22</f>
-        <v>#NAME?</v>
+        <v>0.7767407374290658</v>
+      </c>
+      <c r="I22" s="18">
+        <f t="shared" si="1"/>
+        <v>6.303664509454486E-2</v>
+      </c>
+      <c r="J22" s="12">
+        <f>-(E22-E$4+SUMPRODUCT(I$5:I22,C$5:C22,E$5:E22))*10^6/F22</f>
+        <v>33.313530789350366</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="21">
         <v>19</v>
       </c>
-      <c r="B23" s="25" t="e">
-        <f ca="1">_xll.Orion.ExcelAPI.Cache.Roll(BusCal,EDATE($B$4,(A23*3)),PmtConv)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="C23" s="19" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
+      <c r="B23" s="25">
+        <f>_xll.HLV5r3.Financial.Cache.Roll(BusCal,EDATE($B$4,(A23*3)),PmtConv)</f>
+        <v>41967</v>
+      </c>
+      <c r="C23" s="19">
+        <f t="shared" si="0"/>
+        <v>0.24931506849315069</v>
       </c>
       <c r="D23" s="18">
-        <f ca="1">_xll.HLV5r3.Analytics.Rates.DiscountFactorToZeroRate2( 1, E23, (B23-CalcDate)/365, 0.25)</f>
-        <v>-4.66293670342566E-14</v>
+        <f>_xll.HLV5r3.Analytics.Rates.DiscountFactorToZeroRate2( 1, E23, (B23-CalcDate)/365, 0.25)</f>
+        <v>6.0378106002768397E-2</v>
       </c>
       <c r="E23" s="19">
-        <f ca="1"/>
-        <v>0.99989945035525496</v>
-      </c>
-      <c r="F23" s="26" t="e">
-        <f ca="1">(0.0001*SUMPRODUCT(E$5:E23,C$5:C23)/E$4)*10^6</f>
-        <v>#NAME?</v>
+        <v>0.75187393198811614</v>
+      </c>
+      <c r="F23" s="26">
+        <f>(0.0001*SUMPRODUCT(E$5:E23,C$5:C23)/E$4)*10^6</f>
+        <v>415.07009122502342</v>
       </c>
       <c r="G23" s="18">
-        <f ca="1">_xll.HLV5r3.Analytics.Rates.DiscountFactorToZeroRate2( 1, H23, (B23-CalcDate)/365, 0.25)</f>
-        <v>-4.79616346638068E-14</v>
+        <f>_xll.HLV5r3.Analytics.Rates.DiscountFactorToZeroRate2( 1, H23, (B23-CalcDate)/365, 0.25)</f>
+        <v>5.6805574219011702E-2</v>
       </c>
       <c r="H23" s="19">
-        <f ca="1"/>
-        <v>0.99989727082834001</v>
-      </c>
-      <c r="I23" s="18" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="J23" s="12" t="e">
-        <f ca="1">-(E23-E$4+SUMPRODUCT(I$5:I23,C$5:C23,E$5:E23))*10^6/F23</f>
-        <v>#NAME?</v>
+        <v>0.7645783946729412</v>
+      </c>
+      <c r="I23" s="18">
+        <f t="shared" si="1"/>
+        <v>6.3803821141931213E-2</v>
+      </c>
+      <c r="J23" s="12">
+        <f>-(E23-E$4+SUMPRODUCT(I$5:I23,C$5:C23,E$5:E23))*10^6/F23</f>
+        <v>34.348240401993635</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="21">
         <v>20</v>
       </c>
-      <c r="B24" s="25" t="e">
-        <f ca="1">_xll.Orion.ExcelAPI.Cache.Roll(BusCal,EDATE($B$4,(A24*3)),PmtConv)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="C24" s="19" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
+      <c r="B24" s="25">
+        <f>_xll.HLV5r3.Financial.Cache.Roll(BusCal,EDATE($B$4,(A24*3)),PmtConv)</f>
+        <v>42058</v>
+      </c>
+      <c r="C24" s="19">
+        <f t="shared" si="0"/>
+        <v>0.24931506849315069</v>
       </c>
       <c r="D24" s="18">
-        <f ca="1">_xll.HLV5r3.Analytics.Rates.DiscountFactorToZeroRate2( 1, E24, (B24-CalcDate)/365, 0.25)</f>
-        <v>-4.66293670342566E-14</v>
+        <f>_xll.HLV5r3.Analytics.Rates.DiscountFactorToZeroRate2( 1, E24, (B24-CalcDate)/365, 0.25)</f>
+        <v>6.0877698944185703E-2</v>
       </c>
       <c r="E24" s="19">
-        <f ca="1"/>
-        <v>0.99989945035525496</v>
-      </c>
-      <c r="F24" s="26" t="e">
-        <f ca="1">(0.0001*SUMPRODUCT(E$5:E24,C$5:C24)/E$4)*10^6</f>
-        <v>#NAME?</v>
+        <v>0.73890049303651861</v>
+      </c>
+      <c r="F24" s="26">
+        <f>(0.0001*SUMPRODUCT(E$5:E24,C$5:C24)/E$4)*10^6</f>
+        <v>433.49384643016646</v>
       </c>
       <c r="G24" s="18">
-        <f ca="1">_xll.HLV5r3.Analytics.Rates.DiscountFactorToZeroRate2( 1, H24, (B24-CalcDate)/365, 0.25)</f>
-        <v>-4.79616346638068E-14</v>
+        <f>_xll.HLV5r3.Analytics.Rates.DiscountFactorToZeroRate2( 1, H24, (B24-CalcDate)/365, 0.25)</f>
+        <v>5.7192043078808701E-2</v>
       </c>
       <c r="H24" s="19">
-        <f ca="1"/>
-        <v>0.99989727082834001</v>
-      </c>
-      <c r="I24" s="18" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="J24" s="12" t="e">
-        <f ca="1">-(E24-E$4+SUMPRODUCT(I$5:I24,C$5:C24,E$5:E24))*10^6/F24</f>
-        <v>#NAME?</v>
+        <v>0.75246416332116772</v>
+      </c>
+      <c r="I24" s="18">
+        <f t="shared" si="1"/>
+        <v>6.4574568726408141E-2</v>
+      </c>
+      <c r="J24" s="12">
+        <f>-(E24-E$4+SUMPRODUCT(I$5:I24,C$5:C24,E$5:E24))*10^6/F24</f>
+        <v>35.374209191722763</v>
       </c>
       <c r="K24" s="52">
         <f>'Xccy Spread Curve'!G6</f>
@@ -10169,328 +10137,312 @@
       <c r="A25" s="21">
         <v>21</v>
       </c>
-      <c r="B25" s="25" t="e">
-        <f ca="1">_xll.Orion.ExcelAPI.Cache.Roll(BusCal,EDATE($B$4,(A25*3)),PmtConv)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="C25" s="19" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
+      <c r="B25" s="25">
+        <f>_xll.HLV5r3.Financial.Cache.Roll(BusCal,EDATE($B$4,(A25*3)),PmtConv)</f>
+        <v>42149</v>
+      </c>
+      <c r="C25" s="19">
+        <f t="shared" si="0"/>
+        <v>0.24931506849315069</v>
       </c>
       <c r="D25" s="18">
-        <f ca="1">_xll.HLV5r3.Analytics.Rates.DiscountFactorToZeroRate2( 1, E25, (B25-CalcDate)/365, 0.25)</f>
-        <v>-4.66293670342566E-14</v>
+        <f>_xll.HLV5r3.Analytics.Rates.DiscountFactorToZeroRate2( 1, E25, (B25-CalcDate)/365, 0.25)</f>
+        <v>6.1291547714019699E-2</v>
       </c>
       <c r="E25" s="19">
-        <f ca="1"/>
-        <v>0.99989945035525496</v>
-      </c>
-      <c r="F25" s="26" t="e">
-        <f ca="1">(0.0001*SUMPRODUCT(E$5:E25,C$5:C25)/E$4)*10^6</f>
-        <v>#NAME?</v>
+        <v>0.72629536892065016</v>
+      </c>
+      <c r="F25" s="26">
+        <f>(0.0001*SUMPRODUCT(E$5:E25,C$5:C25)/E$4)*10^6</f>
+        <v>451.6033052946928</v>
       </c>
       <c r="G25" s="18">
-        <f ca="1">_xll.HLV5r3.Analytics.Rates.DiscountFactorToZeroRate2( 1, H25, (B25-CalcDate)/365, 0.25)</f>
-        <v>-4.79616346638068E-14</v>
+        <f>_xll.HLV5r3.Analytics.Rates.DiscountFactorToZeroRate2( 1, H25, (B25-CalcDate)/365, 0.25)</f>
+        <v>5.75729529065203E-2</v>
       </c>
       <c r="H25" s="19">
-        <f ca="1"/>
-        <v>0.99989727082834001</v>
-      </c>
-      <c r="I25" s="18" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="J25" s="12" t="e">
-        <f ca="1">-(E25-E$4+SUMPRODUCT(I$5:I25,C$5:C25,E$5:E25))*10^6/F25</f>
-        <v>#NAME?</v>
+        <v>0.74042266010405833</v>
+      </c>
+      <c r="I25" s="18">
+        <f t="shared" si="1"/>
+        <v>6.523076572619628E-2</v>
+      </c>
+      <c r="J25" s="12">
+        <f>-(E25-E$4+SUMPRODUCT(I$5:I25,C$5:C25,E$5:E25))*10^6/F25</f>
+        <v>35.712482690702878</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="21">
         <v>22</v>
       </c>
-      <c r="B26" s="25" t="e">
-        <f ca="1">_xll.Orion.ExcelAPI.Cache.Roll(BusCal,EDATE($B$4,(A26*3)),PmtConv)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="C26" s="19" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
+      <c r="B26" s="25">
+        <f>_xll.HLV5r3.Financial.Cache.Roll(BusCal,EDATE($B$4,(A26*3)),PmtConv)</f>
+        <v>42240</v>
+      </c>
+      <c r="C26" s="19">
+        <f t="shared" si="0"/>
+        <v>0.24931506849315069</v>
       </c>
       <c r="D26" s="18">
-        <f ca="1">_xll.HLV5r3.Analytics.Rates.DiscountFactorToZeroRate2( 1, E26, (B26-CalcDate)/365, 0.25)</f>
-        <v>-4.66293670342566E-14</v>
+        <f>_xll.HLV5r3.Analytics.Rates.DiscountFactorToZeroRate2( 1, E26, (B26-CalcDate)/365, 0.25)</f>
+        <v>6.1704381139286099E-2</v>
       </c>
       <c r="E26" s="19">
-        <f ca="1"/>
-        <v>0.99989945035525496</v>
-      </c>
-      <c r="F26" s="26" t="e">
-        <f ca="1">(0.0001*SUMPRODUCT(E$5:E26,C$5:C26)/E$4)*10^6</f>
-        <v>#NAME?</v>
+        <v>0.71376428386382695</v>
+      </c>
+      <c r="F26" s="26">
+        <f>(0.0001*SUMPRODUCT(E$5:E26,C$5:C26)/E$4)*10^6</f>
+        <v>469.40031390953396</v>
       </c>
       <c r="G26" s="18">
-        <f ca="1">_xll.HLV5r3.Analytics.Rates.DiscountFactorToZeroRate2( 1, H26, (B26-CalcDate)/365, 0.25)</f>
-        <v>-4.79616346638068E-14</v>
+        <f>_xll.HLV5r3.Analytics.Rates.DiscountFactorToZeroRate2( 1, H26, (B26-CalcDate)/365, 0.25)</f>
+        <v>5.7953745515436403E-2</v>
       </c>
       <c r="H26" s="19">
-        <f ca="1"/>
-        <v>0.99989727082834001</v>
-      </c>
-      <c r="I26" s="18" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="J26" s="12" t="e">
-        <f ca="1">-(E26-E$4+SUMPRODUCT(I$5:I26,C$5:C26,E$5:E26))*10^6/F26</f>
-        <v>#NAME?</v>
+        <v>0.72843804861439365</v>
+      </c>
+      <c r="I26" s="18">
+        <f t="shared" si="1"/>
+        <v>6.5990711327414853E-2</v>
+      </c>
+      <c r="J26" s="12">
+        <f>-(E26-E$4+SUMPRODUCT(I$5:I26,C$5:C26,E$5:E26))*10^6/F26</f>
+        <v>36.036977589324515</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="21">
         <v>23</v>
       </c>
-      <c r="B27" s="25" t="e">
-        <f ca="1">_xll.Orion.ExcelAPI.Cache.Roll(BusCal,EDATE($B$4,(A27*3)),PmtConv)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="C27" s="19" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
+      <c r="B27" s="25">
+        <f>_xll.HLV5r3.Financial.Cache.Roll(BusCal,EDATE($B$4,(A27*3)),PmtConv)</f>
+        <v>42331</v>
+      </c>
+      <c r="C27" s="19">
+        <f t="shared" si="0"/>
+        <v>0.24931506849315069</v>
       </c>
       <c r="D27" s="18">
-        <f ca="1">_xll.HLV5r3.Analytics.Rates.DiscountFactorToZeroRate2( 1, E27, (B27-CalcDate)/365, 0.25)</f>
-        <v>-4.66293670342566E-14</v>
+        <f>_xll.HLV5r3.Analytics.Rates.DiscountFactorToZeroRate2( 1, E27, (B27-CalcDate)/365, 0.25)</f>
+        <v>6.2117106272022903E-2</v>
       </c>
       <c r="E27" s="19">
-        <f ca="1"/>
-        <v>0.99989945035525496</v>
-      </c>
-      <c r="F27" s="26" t="e">
-        <f ca="1">(0.0001*SUMPRODUCT(E$5:E27,C$5:C27)/E$4)*10^6</f>
-        <v>#NAME?</v>
+        <v>0.70130780686839822</v>
+      </c>
+      <c r="F27" s="26">
+        <f>(0.0001*SUMPRODUCT(E$5:E27,C$5:C27)/E$4)*10^6</f>
+        <v>486.88673255313404</v>
       </c>
       <c r="G27" s="18">
-        <f ca="1">_xll.HLV5r3.Analytics.Rates.DiscountFactorToZeroRate2( 1, H27, (B27-CalcDate)/365, 0.25)</f>
-        <v>-4.79616346638068E-14</v>
+        <f>_xll.HLV5r3.Analytics.Rates.DiscountFactorToZeroRate2( 1, H27, (B27-CalcDate)/365, 0.25)</f>
+        <v>5.83344361367013E-2</v>
       </c>
       <c r="H27" s="19">
-        <f ca="1"/>
-        <v>0.99989727082834001</v>
-      </c>
-      <c r="I27" s="18" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="J27" s="12" t="e">
-        <f ca="1">-(E27-E$4+SUMPRODUCT(I$5:I27,C$5:C27,E$5:E27))*10^6/F27</f>
-        <v>#NAME?</v>
+        <v>0.7165138584131111</v>
+      </c>
+      <c r="I27" s="18">
+        <f t="shared" si="1"/>
+        <v>6.6750691979933288E-2</v>
+      </c>
+      <c r="J27" s="12">
+        <f>-(E27-E$4+SUMPRODUCT(I$5:I27,C$5:C27,E$5:E27))*10^6/F27</f>
+        <v>36.355711921831308</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="21">
         <v>24</v>
       </c>
-      <c r="B28" s="25" t="e">
-        <f ca="1">_xll.Orion.ExcelAPI.Cache.Roll(BusCal,EDATE($B$4,(A28*3)),PmtConv)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="C28" s="19" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
+      <c r="B28" s="25">
+        <f>_xll.HLV5r3.Financial.Cache.Roll(BusCal,EDATE($B$4,(A28*3)),PmtConv)</f>
+        <v>42423</v>
+      </c>
+      <c r="C28" s="19">
+        <f t="shared" si="0"/>
+        <v>0.25205479452054796</v>
       </c>
       <c r="D28" s="18">
-        <f ca="1">_xll.HLV5r3.Analytics.Rates.DiscountFactorToZeroRate2( 1, E28, (B28-CalcDate)/365, 0.25)</f>
-        <v>-4.66293670342566E-14</v>
+        <f>_xll.HLV5r3.Analytics.Rates.DiscountFactorToZeroRate2( 1, E28, (B28-CalcDate)/365, 0.25)</f>
+        <v>6.2534270515870502E-2</v>
       </c>
       <c r="E28" s="19">
-        <f ca="1"/>
-        <v>0.99989945035525496</v>
-      </c>
-      <c r="F28" s="26" t="e">
-        <f ca="1">(0.0001*SUMPRODUCT(E$5:E28,C$5:C28)/E$4)*10^6</f>
-        <v>#NAME?</v>
+        <v>0.68879406682285638</v>
+      </c>
+      <c r="F28" s="26">
+        <f>(0.0001*SUMPRODUCT(E$5:E28,C$5:C28)/E$4)*10^6</f>
+        <v>504.24986310774369</v>
       </c>
       <c r="G28" s="18">
-        <f ca="1">_xll.HLV5r3.Analytics.Rates.DiscountFactorToZeroRate2( 1, H28, (B28-CalcDate)/365, 0.25)</f>
-        <v>-4.79616346638068E-14</v>
+        <f>_xll.HLV5r3.Analytics.Rates.DiscountFactorToZeroRate2( 1, H28, (B28-CalcDate)/365, 0.25)</f>
+        <v>5.8719219449885798E-2</v>
       </c>
       <c r="H28" s="19">
-        <f ca="1"/>
-        <v>0.99989727082834001</v>
-      </c>
-      <c r="I28" s="18" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="J28" s="12" t="e">
-        <f ca="1">-(E28-E$4+SUMPRODUCT(I$5:I28,C$5:C28,E$5:E28))*10^6/F28</f>
-        <v>#NAME?</v>
+        <v>0.70452356112847192</v>
+      </c>
+      <c r="I28" s="18">
+        <f t="shared" si="1"/>
+        <v>6.7521093414430286E-2</v>
+      </c>
+      <c r="J28" s="12">
+        <f>-(E28-E$4+SUMPRODUCT(I$5:I28,C$5:C28,E$5:E28))*10^6/F28</f>
+        <v>36.672805301046402</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="21">
         <v>25</v>
       </c>
-      <c r="B29" s="25" t="e">
-        <f ca="1">_xll.Orion.ExcelAPI.Cache.Roll(BusCal,EDATE($B$4,(A29*3)),PmtConv)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="C29" s="19" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
+      <c r="B29" s="25">
+        <f>_xll.HLV5r3.Financial.Cache.Roll(BusCal,EDATE($B$4,(A29*3)),PmtConv)</f>
+        <v>42513</v>
+      </c>
+      <c r="C29" s="19">
+        <f t="shared" si="0"/>
+        <v>0.24657534246575341</v>
       </c>
       <c r="D29" s="18">
-        <f ca="1">_xll.HLV5r3.Analytics.Rates.DiscountFactorToZeroRate2( 1, E29, (B29-CalcDate)/365, 0.25)</f>
-        <v>-4.66293670342566E-14</v>
+        <f>_xll.HLV5r3.Analytics.Rates.DiscountFactorToZeroRate2( 1, E29, (B29-CalcDate)/365, 0.25)</f>
+        <v>6.2885798088234204E-2</v>
       </c>
       <c r="E29" s="19">
-        <f ca="1"/>
-        <v>0.99989945035525496</v>
-      </c>
-      <c r="F29" s="26" t="e">
-        <f ca="1">(0.0001*SUMPRODUCT(E$5:E29,C$5:C29)/E$4)*10^6</f>
-        <v>#NAME?</v>
+        <v>0.67686877733619011</v>
+      </c>
+      <c r="F29" s="26">
+        <f>(0.0001*SUMPRODUCT(E$5:E29,C$5:C29)/E$4)*10^6</f>
+        <v>520.94145649913423</v>
       </c>
       <c r="G29" s="18">
-        <f ca="1">_xll.HLV5r3.Analytics.Rates.DiscountFactorToZeroRate2( 1, H29, (B29-CalcDate)/365, 0.25)</f>
-        <v>-4.79616346638068E-14</v>
+        <f>_xll.HLV5r3.Analytics.Rates.DiscountFactorToZeroRate2( 1, H29, (B29-CalcDate)/365, 0.25)</f>
+        <v>5.90390748054377E-2</v>
       </c>
       <c r="H29" s="19">
-        <f ca="1"/>
-        <v>0.99989727082834001</v>
-      </c>
-      <c r="I29" s="18" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="J29" s="12" t="e">
-        <f ca="1">-(E29-E$4+SUMPRODUCT(I$5:I29,C$5:C29,E$5:E29))*10^6/F29</f>
-        <v>#NAME?</v>
+        <v>0.69310167016619162</v>
+      </c>
+      <c r="I29" s="18">
+        <f t="shared" si="1"/>
+        <v>6.6833071309608388E-2</v>
+      </c>
+      <c r="J29" s="12">
+        <f>-(E29-E$4+SUMPRODUCT(I$5:I29,C$5:C29,E$5:E29))*10^6/F29</f>
+        <v>36.977597899363673</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="21">
         <v>26</v>
       </c>
-      <c r="B30" s="25" t="e">
-        <f ca="1">_xll.Orion.ExcelAPI.Cache.Roll(BusCal,EDATE($B$4,(A30*3)),PmtConv)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="C30" s="19" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
+      <c r="B30" s="25">
+        <f>_xll.HLV5r3.Financial.Cache.Roll(BusCal,EDATE($B$4,(A30*3)),PmtConv)</f>
+        <v>42605</v>
+      </c>
+      <c r="C30" s="19">
+        <f t="shared" si="0"/>
+        <v>0.25205479452054796</v>
       </c>
       <c r="D30" s="18">
-        <f ca="1">_xll.HLV5r3.Analytics.Rates.DiscountFactorToZeroRate2( 1, E30, (B30-CalcDate)/365, 0.25)</f>
-        <v>-4.66293670342566E-14</v>
+        <f>_xll.HLV5r3.Analytics.Rates.DiscountFactorToZeroRate2( 1, E30, (B30-CalcDate)/365, 0.25)</f>
+        <v>6.3245060803363506E-2</v>
       </c>
       <c r="E30" s="19">
-        <f ca="1"/>
-        <v>0.99989945035525496</v>
-      </c>
-      <c r="F30" s="26" t="e">
-        <f ca="1">(0.0001*SUMPRODUCT(E$5:E30,C$5:C30)/E$4)*10^6</f>
-        <v>#NAME?</v>
+        <v>0.66477502868755367</v>
+      </c>
+      <c r="F30" s="26">
+        <f>(0.0001*SUMPRODUCT(E$5:E30,C$5:C30)/E$4)*10^6</f>
+        <v>537.69911480154656</v>
       </c>
       <c r="G30" s="18">
-        <f ca="1">_xll.HLV5r3.Analytics.Rates.DiscountFactorToZeroRate2( 1, H30, (B30-CalcDate)/365, 0.25)</f>
-        <v>-4.79616346638068E-14</v>
+        <f>_xll.HLV5r3.Analytics.Rates.DiscountFactorToZeroRate2( 1, H30, (B30-CalcDate)/365, 0.25)</f>
+        <v>5.9365965822405699E-2</v>
       </c>
       <c r="H30" s="19">
-        <f ca="1"/>
-        <v>0.99989727082834001</v>
-      </c>
-      <c r="I30" s="18" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="J30" s="12" t="e">
-        <f ca="1">-(E30-E$4+SUMPRODUCT(I$5:I30,C$5:C30,E$5:E30))*10^6/F30</f>
-        <v>#NAME?</v>
+        <v>0.68150825242948809</v>
+      </c>
+      <c r="I30" s="18">
+        <f t="shared" si="1"/>
+        <v>6.7490928469759681E-2</v>
+      </c>
+      <c r="J30" s="12">
+        <f>-(E30-E$4+SUMPRODUCT(I$5:I30,C$5:C30,E$5:E30))*10^6/F30</f>
+        <v>37.285072324930674</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="21">
         <v>27</v>
       </c>
-      <c r="B31" s="25" t="e">
-        <f ca="1">_xll.Orion.ExcelAPI.Cache.Roll(BusCal,EDATE($B$4,(A31*3)),PmtConv)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="C31" s="19" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
+      <c r="B31" s="25">
+        <f>_xll.HLV5r3.Financial.Cache.Roll(BusCal,EDATE($B$4,(A31*3)),PmtConv)</f>
+        <v>42697</v>
+      </c>
+      <c r="C31" s="19">
+        <f t="shared" si="0"/>
+        <v>0.25205479452054796</v>
       </c>
       <c r="D31" s="18">
-        <f ca="1">_xll.HLV5r3.Analytics.Rates.DiscountFactorToZeroRate2( 1, E31, (B31-CalcDate)/365, 0.25)</f>
-        <v>-4.66293670342566E-14</v>
+        <f>_xll.HLV5r3.Analytics.Rates.DiscountFactorToZeroRate2( 1, E31, (B31-CalcDate)/365, 0.25)</f>
+        <v>6.3604254694880097E-2</v>
       </c>
       <c r="E31" s="19">
-        <f ca="1"/>
-        <v>0.99989945035525496</v>
-      </c>
-      <c r="F31" s="26" t="e">
-        <f ca="1">(0.0001*SUMPRODUCT(E$5:E31,C$5:C31)/E$4)*10^6</f>
-        <v>#NAME?</v>
+        <v>0.65278139925419709</v>
+      </c>
+      <c r="F31" s="26">
+        <f>(0.0001*SUMPRODUCT(E$5:E31,C$5:C31)/E$4)*10^6</f>
+        <v>554.15443752398562</v>
       </c>
       <c r="G31" s="18">
-        <f ca="1">_xll.HLV5r3.Analytics.Rates.DiscountFactorToZeroRate2( 1, H31, (B31-CalcDate)/365, 0.25)</f>
-        <v>-4.79616346638068E-14</v>
+        <f>_xll.HLV5r3.Analytics.Rates.DiscountFactorToZeroRate2( 1, H31, (B31-CalcDate)/365, 0.25)</f>
+        <v>5.9692791921245103E-2</v>
       </c>
       <c r="H31" s="19">
-        <f ca="1"/>
-        <v>0.99989727082834001</v>
-      </c>
-      <c r="I31" s="18" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="J31" s="12" t="e">
-        <f ca="1">-(E31-E$4+SUMPRODUCT(I$5:I31,C$5:C31,E$5:E31))*10^6/F31</f>
-        <v>#NAME?</v>
+        <v>0.67000035623717447</v>
+      </c>
+      <c r="I31" s="18">
+        <f t="shared" si="1"/>
+        <v>6.814373583491172E-2</v>
+      </c>
+      <c r="J31" s="12">
+        <f>-(E31-E$4+SUMPRODUCT(I$5:I31,C$5:C31,E$5:E31))*10^6/F31</f>
+        <v>37.58814195293931</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="21">
         <v>28</v>
       </c>
-      <c r="B32" s="25" t="e">
-        <f ca="1">_xll.Orion.ExcelAPI.Cache.Roll(BusCal,EDATE($B$4,(A32*3)),PmtConv)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="C32" s="19" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
+      <c r="B32" s="25">
+        <f>_xll.HLV5r3.Financial.Cache.Roll(BusCal,EDATE($B$4,(A32*3)),PmtConv)</f>
+        <v>42789</v>
+      </c>
+      <c r="C32" s="19">
+        <f t="shared" si="0"/>
+        <v>0.25205479452054796</v>
       </c>
       <c r="D32" s="18">
-        <f ca="1">_xll.HLV5r3.Analytics.Rates.DiscountFactorToZeroRate2( 1, E32, (B32-CalcDate)/365, 0.25)</f>
-        <v>-4.66293670342566E-14</v>
+        <f>_xll.HLV5r3.Analytics.Rates.DiscountFactorToZeroRate2( 1, E32, (B32-CalcDate)/365, 0.25)</f>
+        <v>6.3963387185712206E-2</v>
       </c>
       <c r="E32" s="19">
-        <f ca="1"/>
-        <v>0.99989945035525496</v>
-      </c>
-      <c r="F32" s="26" t="e">
-        <f ca="1">(0.0001*SUMPRODUCT(E$5:E32,C$5:C32)/E$4)*10^6</f>
-        <v>#NAME?</v>
+        <v>0.64089031975805189</v>
+      </c>
+      <c r="F32" s="26">
+        <f>(0.0001*SUMPRODUCT(E$5:E32,C$5:C32)/E$4)*10^6</f>
+        <v>570.31000974671565</v>
       </c>
       <c r="G32" s="18">
-        <f ca="1">_xll.HLV5r3.Analytics.Rates.DiscountFactorToZeroRate2( 1, H32, (B32-CalcDate)/365, 0.25)</f>
-        <v>-4.79616346638068E-14</v>
+        <f>_xll.HLV5r3.Analytics.Rates.DiscountFactorToZeroRate2( 1, H32, (B32-CalcDate)/365, 0.25)</f>
+        <v>6.00195601036599E-2</v>
       </c>
       <c r="H32" s="19">
-        <f ca="1"/>
-        <v>0.99989727082834001</v>
-      </c>
-      <c r="I32" s="18" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="J32" s="12" t="e">
-        <f ca="1">-(E32-E$4+SUMPRODUCT(I$5:I32,C$5:C32,E$5:E32))*10^6/F32</f>
-        <v>#NAME?</v>
+        <v>0.65858024201821974</v>
+      </c>
+      <c r="I32" s="18">
+        <f t="shared" si="1"/>
+        <v>6.8796570191801687E-2</v>
+      </c>
+      <c r="J32" s="12">
+        <f>-(E32-E$4+SUMPRODUCT(I$5:I32,C$5:C32,E$5:E32))*10^6/F32</f>
+        <v>37.887031195753032</v>
       </c>
       <c r="K32" s="52">
         <f>'Xccy Spread Curve'!G7</f>
@@ -10501,492 +10453,468 @@
       <c r="A33" s="21">
         <v>29</v>
       </c>
-      <c r="B33" s="25" t="e">
-        <f ca="1">_xll.Orion.ExcelAPI.Cache.Roll(BusCal,EDATE($B$4,(A33*3)),PmtConv)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="C33" s="19" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
+      <c r="B33" s="25">
+        <f>_xll.HLV5r3.Financial.Cache.Roll(BusCal,EDATE($B$4,(A33*3)),PmtConv)</f>
+        <v>42878</v>
+      </c>
+      <c r="C33" s="19">
+        <f t="shared" si="0"/>
+        <v>0.24383561643835616</v>
       </c>
       <c r="D33" s="18">
-        <f ca="1">_xll.HLV5r3.Analytics.Rates.DiscountFactorToZeroRate2( 1, E33, (B33-CalcDate)/365, 0.25)</f>
-        <v>-4.66293670342566E-14</v>
+        <f>_xll.HLV5r3.Analytics.Rates.DiscountFactorToZeroRate2( 1, E33, (B33-CalcDate)/365, 0.25)</f>
+        <v>6.4207857760695E-2</v>
       </c>
       <c r="E33" s="19">
-        <f ca="1"/>
-        <v>0.99989945035525496</v>
-      </c>
-      <c r="F33" s="26" t="e">
-        <f ca="1">(0.0001*SUMPRODUCT(E$5:E33,C$5:C33)/E$4)*10^6</f>
-        <v>#NAME?</v>
+        <v>0.62994943430223649</v>
+      </c>
+      <c r="F33" s="26">
+        <f>(0.0001*SUMPRODUCT(E$5:E33,C$5:C33)/E$4)*10^6</f>
+        <v>585.67196524969199</v>
       </c>
       <c r="G33" s="18">
-        <f ca="1">_xll.HLV5r3.Analytics.Rates.DiscountFactorToZeroRate2( 1, H33, (B33-CalcDate)/365, 0.25)</f>
-        <v>-4.79616346638068E-14</v>
+        <f>_xll.HLV5r3.Analytics.Rates.DiscountFactorToZeroRate2( 1, H33, (B33-CalcDate)/365, 0.25)</f>
+        <v>6.023848908697E-2</v>
       </c>
       <c r="H33" s="19">
-        <f ca="1"/>
-        <v>0.99989727082834001</v>
-      </c>
-      <c r="I33" s="18" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="J33" s="12" t="e">
-        <f ca="1">-(E33-E$4+SUMPRODUCT(I$5:I33,C$5:C33,E$5:E33))*10^6/F33</f>
-        <v>#NAME?</v>
+        <v>0.64806785908000453</v>
+      </c>
+      <c r="I33" s="18">
+        <f t="shared" si="1"/>
+        <v>6.6524795372674875E-2</v>
+      </c>
+      <c r="J33" s="12">
+        <f>-(E33-E$4+SUMPRODUCT(I$5:I33,C$5:C33,E$5:E33))*10^6/F33</f>
+        <v>38.126729663881271</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="21">
         <v>30</v>
       </c>
-      <c r="B34" s="25" t="e">
-        <f ca="1">_xll.Orion.ExcelAPI.Cache.Roll(BusCal,EDATE($B$4,(A34*3)),PmtConv)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="C34" s="19" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
+      <c r="B34" s="25">
+        <f>_xll.HLV5r3.Financial.Cache.Roll(BusCal,EDATE($B$4,(A34*3)),PmtConv)</f>
+        <v>42970</v>
+      </c>
+      <c r="C34" s="19">
+        <f t="shared" si="0"/>
+        <v>0.25205479452054796</v>
       </c>
       <c r="D34" s="18">
-        <f ca="1">_xll.HLV5r3.Analytics.Rates.DiscountFactorToZeroRate2( 1, E34, (B34-CalcDate)/365, 0.25)</f>
-        <v>-4.66293670342566E-14</v>
+        <f>_xll.HLV5r3.Analytics.Rates.DiscountFactorToZeroRate2( 1, E34, (B34-CalcDate)/365, 0.25)</f>
+        <v>6.44604497369832E-2</v>
       </c>
       <c r="E34" s="19">
-        <f ca="1"/>
-        <v>0.99989945035525496</v>
-      </c>
-      <c r="F34" s="26" t="e">
-        <f ca="1">(0.0001*SUMPRODUCT(E$5:E34,C$5:C34)/E$4)*10^6</f>
-        <v>#NAME?</v>
+        <v>0.6187603354052803</v>
+      </c>
+      <c r="F34" s="26">
+        <f>(0.0001*SUMPRODUCT(E$5:E34,C$5:C34)/E$4)*10^6</f>
+        <v>601.26968451462733</v>
       </c>
       <c r="G34" s="18">
-        <f ca="1">_xll.HLV5r3.Analytics.Rates.DiscountFactorToZeroRate2( 1, H34, (B34-CalcDate)/365, 0.25)</f>
-        <v>-4.79616346638068E-14</v>
+        <f>_xll.HLV5r3.Analytics.Rates.DiscountFactorToZeroRate2( 1, H34, (B34-CalcDate)/365, 0.25)</f>
+        <v>6.0464749153234201E-2</v>
       </c>
       <c r="H34" s="19">
-        <f ca="1"/>
-        <v>0.99989727082834001</v>
-      </c>
-      <c r="I34" s="18" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="J34" s="12" t="e">
-        <f ca="1">-(E34-E$4+SUMPRODUCT(I$5:I34,C$5:C34,E$5:E34))*10^6/F34</f>
-        <v>#NAME?</v>
+        <v>0.63730729595371627</v>
+      </c>
+      <c r="I34" s="18">
+        <f t="shared" si="1"/>
+        <v>6.6987095312058445E-2</v>
+      </c>
+      <c r="J34" s="12">
+        <f>-(E34-E$4+SUMPRODUCT(I$5:I34,C$5:C34,E$5:E34))*10^6/F34</f>
+        <v>38.371212951984738</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="21">
         <v>31</v>
       </c>
-      <c r="B35" s="25" t="e">
-        <f ca="1">_xll.Orion.ExcelAPI.Cache.Roll(BusCal,EDATE($B$4,(A35*3)),PmtConv)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="C35" s="19" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
+      <c r="B35" s="25">
+        <f>_xll.HLV5r3.Financial.Cache.Roll(BusCal,EDATE($B$4,(A35*3)),PmtConv)</f>
+        <v>43062</v>
+      </c>
+      <c r="C35" s="19">
+        <f t="shared" si="0"/>
+        <v>0.25205479452054796</v>
       </c>
       <c r="D35" s="18">
-        <f ca="1">_xll.HLV5r3.Analytics.Rates.DiscountFactorToZeroRate2( 1, E35, (B35-CalcDate)/365, 0.25)</f>
-        <v>-4.66293670342566E-14</v>
+        <f>_xll.HLV5r3.Analytics.Rates.DiscountFactorToZeroRate2( 1, E35, (B35-CalcDate)/365, 0.25)</f>
+        <v>6.4712994435891999E-2</v>
       </c>
       <c r="E35" s="19">
-        <f ca="1"/>
-        <v>0.99989945035525496</v>
-      </c>
-      <c r="F35" s="26" t="e">
-        <f ca="1">(0.0001*SUMPRODUCT(E$5:E35,C$5:C35)/E$4)*10^6</f>
-        <v>#NAME?</v>
+        <v>0.60769410833884963</v>
+      </c>
+      <c r="F35" s="26">
+        <f>(0.0001*SUMPRODUCT(E$5:E35,C$5:C35)/E$4)*10^6</f>
+        <v>616.58844617153943</v>
       </c>
       <c r="G35" s="18">
-        <f ca="1">_xll.HLV5r3.Analytics.Rates.DiscountFactorToZeroRate2( 1, H35, (B35-CalcDate)/365, 0.25)</f>
-        <v>-4.79616346638068E-14</v>
+        <f>_xll.HLV5r3.Analytics.Rates.DiscountFactorToZeroRate2( 1, H35, (B35-CalcDate)/365, 0.25)</f>
+        <v>6.06909646264535E-2</v>
       </c>
       <c r="H35" s="19">
-        <f ca="1"/>
-        <v>0.99989727082834001</v>
-      </c>
-      <c r="I35" s="18" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="J35" s="12" t="e">
-        <f ca="1">-(E35-E$4+SUMPRODUCT(I$5:I35,C$5:C35,E$5:E35))*10^6/F35</f>
-        <v>#NAME?</v>
+        <v>0.62665525817583867</v>
+      </c>
+      <c r="I35" s="18">
+        <f t="shared" si="1"/>
+        <v>6.7438677809159395E-2</v>
+      </c>
+      <c r="J35" s="12">
+        <f>-(E35-E$4+SUMPRODUCT(I$5:I35,C$5:C35,E$5:E35))*10^6/F35</f>
+        <v>38.61237225164934</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="21">
         <v>32</v>
       </c>
-      <c r="B36" s="25" t="e">
-        <f ca="1">_xll.Orion.ExcelAPI.Cache.Roll(BusCal,EDATE($B$4,(A36*3)),PmtConv)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="C36" s="19" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
+      <c r="B36" s="25">
+        <f>_xll.HLV5r3.Financial.Cache.Roll(BusCal,EDATE($B$4,(A36*3)),PmtConv)</f>
+        <v>43154</v>
+      </c>
+      <c r="C36" s="19">
+        <f t="shared" si="0"/>
+        <v>0.25205479452054796</v>
       </c>
       <c r="D36" s="18">
-        <f ca="1">_xll.HLV5r3.Analytics.Rates.DiscountFactorToZeroRate2( 1, E36, (B36-CalcDate)/365, 0.25)</f>
-        <v>-4.66293670342566E-14</v>
+        <f>_xll.HLV5r3.Analytics.Rates.DiscountFactorToZeroRate2( 1, E36, (B36-CalcDate)/365, 0.25)</f>
+        <v>6.4965496319979693E-2</v>
       </c>
       <c r="E36" s="19">
-        <f ca="1"/>
-        <v>0.99989945035525496</v>
-      </c>
-      <c r="F36" s="26" t="e">
-        <f ca="1">(0.0001*SUMPRODUCT(E$5:E36,C$5:C36)/E$4)*10^6</f>
-        <v>#NAME?</v>
+        <v>0.5967513006070041</v>
+      </c>
+      <c r="F36" s="26">
+        <f>(0.0001*SUMPRODUCT(E$5:E36,C$5:C36)/E$4)*10^6</f>
+        <v>631.6313613767561</v>
       </c>
       <c r="G36" s="18">
-        <f ca="1">_xll.HLV5r3.Analytics.Rates.DiscountFactorToZeroRate2( 1, H36, (B36-CalcDate)/365, 0.25)</f>
-        <v>-4.79616346638068E-14</v>
+        <f>_xll.HLV5r3.Analytics.Rates.DiscountFactorToZeroRate2( 1, H36, (B36-CalcDate)/365, 0.25)</f>
+        <v>6.0917139715812099E-2</v>
       </c>
       <c r="H36" s="19">
-        <f ca="1"/>
-        <v>0.99989727082834001</v>
-      </c>
-      <c r="I36" s="18" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="J36" s="12" t="e">
-        <f ca="1">-(E36-E$4+SUMPRODUCT(I$5:I36,C$5:C36,E$5:E36))*10^6/F36</f>
-        <v>#NAME?</v>
+        <v>0.61611230203246892</v>
+      </c>
+      <c r="I36" s="18">
+        <f t="shared" si="1"/>
+        <v>6.7890273229962814E-2</v>
+      </c>
+      <c r="J36" s="12">
+        <f>-(E36-E$4+SUMPRODUCT(I$5:I36,C$5:C36,E$5:E36))*10^6/F36</f>
+        <v>38.850352418210655</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="21">
         <v>33</v>
       </c>
-      <c r="B37" s="25" t="e">
-        <f ca="1">_xll.Orion.ExcelAPI.Cache.Roll(BusCal,EDATE($B$4,(A37*3)),PmtConv)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="C37" s="19" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
+      <c r="B37" s="25">
+        <f>_xll.HLV5r3.Financial.Cache.Roll(BusCal,EDATE($B$4,(A37*3)),PmtConv)</f>
+        <v>43243</v>
+      </c>
+      <c r="C37" s="19">
+        <f t="shared" si="0"/>
+        <v>0.24383561643835616</v>
       </c>
       <c r="D37" s="18">
-        <f ca="1">_xll.HLV5r3.Analytics.Rates.DiscountFactorToZeroRate2( 1, E37, (B37-CalcDate)/365, 0.25)</f>
-        <v>-4.66293670342566E-14</v>
+        <f>_xll.HLV5r3.Analytics.Rates.DiscountFactorToZeroRate2( 1, E37, (B37-CalcDate)/365, 0.25)</f>
+        <v>6.5148311902876593E-2</v>
       </c>
       <c r="E37" s="19">
-        <f ca="1"/>
-        <v>0.99989945035525496</v>
-      </c>
-      <c r="F37" s="26" t="e">
-        <f ca="1">(0.0001*SUMPRODUCT(E$5:E37,C$5:C37)/E$4)*10^6</f>
-        <v>#NAME?</v>
+        <v>0.58657577143713391</v>
+      </c>
+      <c r="F37" s="26">
+        <f>(0.0001*SUMPRODUCT(E$5:E37,C$5:C37)/E$4)*10^6</f>
+        <v>645.93560614510363</v>
       </c>
       <c r="G37" s="18">
-        <f ca="1">_xll.HLV5r3.Analytics.Rates.DiscountFactorToZeroRate2( 1, H37, (B37-CalcDate)/365, 0.25)</f>
-        <v>-4.79616346638068E-14</v>
+        <f>_xll.HLV5r3.Analytics.Rates.DiscountFactorToZeroRate2( 1, H37, (B37-CalcDate)/365, 0.25)</f>
+        <v>6.1074489069714098E-2</v>
       </c>
       <c r="H37" s="19">
-        <f ca="1"/>
-        <v>0.99989727082834001</v>
-      </c>
-      <c r="I37" s="18" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="J37" s="12" t="e">
-        <f ca="1">-(E37-E$4+SUMPRODUCT(I$5:I37,C$5:C37,E$5:E37))*10^6/F37</f>
-        <v>#NAME?</v>
+        <v>0.6063201096948756</v>
+      </c>
+      <c r="I37" s="18">
+        <f t="shared" si="1"/>
+        <v>6.6233975098802203E-2</v>
+      </c>
+      <c r="J37" s="12">
+        <f>-(E37-E$4+SUMPRODUCT(I$5:I37,C$5:C37,E$5:E37))*10^6/F37</f>
+        <v>39.077134987069492</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="21">
         <v>34</v>
       </c>
-      <c r="B38" s="25" t="e">
-        <f ca="1">_xll.Orion.ExcelAPI.Cache.Roll(BusCal,EDATE($B$4,(A38*3)),PmtConv)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="C38" s="19" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
+      <c r="B38" s="25">
+        <f>_xll.HLV5r3.Financial.Cache.Roll(BusCal,EDATE($B$4,(A38*3)),PmtConv)</f>
+        <v>43335</v>
+      </c>
+      <c r="C38" s="19">
+        <f t="shared" si="0"/>
+        <v>0.25205479452054796</v>
       </c>
       <c r="D38" s="18">
-        <f ca="1">_xll.HLV5r3.Analytics.Rates.DiscountFactorToZeroRate2( 1, E38, (B38-CalcDate)/365, 0.25)</f>
-        <v>-4.66293670342566E-14</v>
+        <f>_xll.HLV5r3.Analytics.Rates.DiscountFactorToZeroRate2( 1, E38, (B38-CalcDate)/365, 0.25)</f>
+        <v>6.5337253629252204E-2</v>
       </c>
       <c r="E38" s="19">
-        <f ca="1"/>
-        <v>0.99989945035525496</v>
-      </c>
-      <c r="F38" s="26" t="e">
-        <f ca="1">(0.0001*SUMPRODUCT(E$5:E38,C$5:C38)/E$4)*10^6</f>
-        <v>#NAME?</v>
+        <v>0.57618667382039335</v>
+      </c>
+      <c r="F38" s="26">
+        <f>(0.0001*SUMPRODUCT(E$5:E38,C$5:C38)/E$4)*10^6</f>
+        <v>660.46012794813873</v>
       </c>
       <c r="G38" s="18">
-        <f ca="1">_xll.HLV5r3.Analytics.Rates.DiscountFactorToZeroRate2( 1, H38, (B38-CalcDate)/365, 0.25)</f>
-        <v>-4.79616346638068E-14</v>
+        <f>_xll.HLV5r3.Analytics.Rates.DiscountFactorToZeroRate2( 1, H38, (B38-CalcDate)/365, 0.25)</f>
+        <v>6.1237108139307501E-2</v>
       </c>
       <c r="H38" s="19">
-        <f ca="1"/>
-        <v>0.99989727082834001</v>
-      </c>
-      <c r="I38" s="18" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="J38" s="12" t="e">
-        <f ca="1">-(E38-E$4+SUMPRODUCT(I$5:I38,C$5:C38,E$5:E38))*10^6/F38</f>
-        <v>#NAME?</v>
+        <v>0.59631422978701354</v>
+      </c>
+      <c r="I38" s="18">
+        <f t="shared" si="1"/>
+        <v>6.6571010644805778E-2</v>
+      </c>
+      <c r="J38" s="12">
+        <f>-(E38-E$4+SUMPRODUCT(I$5:I38,C$5:C38,E$5:E38))*10^6/F38</f>
+        <v>39.30935519568169</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="21">
         <v>35</v>
       </c>
-      <c r="B39" s="25" t="e">
-        <f ca="1">_xll.Orion.ExcelAPI.Cache.Roll(BusCal,EDATE($B$4,(A39*3)),PmtConv)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="C39" s="19" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
+      <c r="B39" s="25">
+        <f>_xll.HLV5r3.Financial.Cache.Roll(BusCal,EDATE($B$4,(A39*3)),PmtConv)</f>
+        <v>43427</v>
+      </c>
+      <c r="C39" s="19">
+        <f t="shared" si="0"/>
+        <v>0.25205479452054796</v>
       </c>
       <c r="D39" s="18">
-        <f ca="1">_xll.HLV5r3.Analytics.Rates.DiscountFactorToZeroRate2( 1, E39, (B39-CalcDate)/365, 0.25)</f>
-        <v>-4.66293670342566E-14</v>
+        <f>_xll.HLV5r3.Analytics.Rates.DiscountFactorToZeroRate2( 1, E39, (B39-CalcDate)/365, 0.25)</f>
+        <v>6.5526161717088804E-2</v>
       </c>
       <c r="E39" s="19">
-        <f ca="1"/>
-        <v>0.99989945035525496</v>
-      </c>
-      <c r="F39" s="26" t="e">
-        <f ca="1">(0.0001*SUMPRODUCT(E$5:E39,C$5:C39)/E$4)*10^6</f>
-        <v>#NAME?</v>
+        <v>0.5659287483139176</v>
+      </c>
+      <c r="F39" s="26">
+        <f>(0.0001*SUMPRODUCT(E$5:E39,C$5:C39)/E$4)*10^6</f>
+        <v>674.72606782027844</v>
       </c>
       <c r="G39" s="18">
-        <f ca="1">_xll.HLV5r3.Analytics.Rates.DiscountFactorToZeroRate2( 1, H39, (B39-CalcDate)/365, 0.25)</f>
-        <v>-4.79616346638068E-14</v>
+        <f>_xll.HLV5r3.Analytics.Rates.DiscountFactorToZeroRate2( 1, H39, (B39-CalcDate)/365, 0.25)</f>
+        <v>6.1399695415415699E-2</v>
       </c>
       <c r="H39" s="19">
-        <f ca="1"/>
-        <v>0.99989727082834001</v>
-      </c>
-      <c r="I39" s="18" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="J39" s="12" t="e">
-        <f ca="1">-(E39-E$4+SUMPRODUCT(I$5:I39,C$5:C39,E$5:E39))*10^6/F39</f>
-        <v>#NAME?</v>
+        <v>0.58642631512726662</v>
+      </c>
+      <c r="I39" s="18">
+        <f t="shared" si="1"/>
+        <v>6.6895406340521768E-2</v>
+      </c>
+      <c r="J39" s="12">
+        <f>-(E39-E$4+SUMPRODUCT(I$5:I39,C$5:C39,E$5:E39))*10^6/F39</f>
+        <v>39.538843489836211</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="21">
         <v>36</v>
       </c>
-      <c r="B40" s="25" t="e">
-        <f ca="1">_xll.Orion.ExcelAPI.Cache.Roll(BusCal,EDATE($B$4,(A40*3)),PmtConv)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="C40" s="19" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
+      <c r="B40" s="25">
+        <f>_xll.HLV5r3.Financial.Cache.Roll(BusCal,EDATE($B$4,(A40*3)),PmtConv)</f>
+        <v>43521</v>
+      </c>
+      <c r="C40" s="19">
+        <f t="shared" si="0"/>
+        <v>0.25753424657534246</v>
       </c>
       <c r="D40" s="18">
-        <f ca="1">_xll.HLV5r3.Analytics.Rates.DiscountFactorToZeroRate2( 1, E40, (B40-CalcDate)/365, 0.25)</f>
-        <v>-4.66293670342566E-14</v>
+        <f>_xll.HLV5r3.Analytics.Rates.DiscountFactorToZeroRate2( 1, E40, (B40-CalcDate)/365, 0.25)</f>
+        <v>6.5719144693957801E-2</v>
       </c>
       <c r="E40" s="19">
-        <f ca="1"/>
-        <v>0.99989945035525496</v>
-      </c>
-      <c r="F40" s="26" t="e">
-        <f ca="1">(0.0001*SUMPRODUCT(E$5:E40,C$5:C40)/E$4)*10^6</f>
-        <v>#NAME?</v>
+        <v>0.55558285364747872</v>
+      </c>
+      <c r="F40" s="26">
+        <f>(0.0001*SUMPRODUCT(E$5:E40,C$5:C40)/E$4)*10^6</f>
+        <v>689.03566780790197</v>
       </c>
       <c r="G40" s="18">
-        <f ca="1">_xll.HLV5r3.Analytics.Rates.DiscountFactorToZeroRate2( 1, H40, (B40-CalcDate)/365, 0.25)</f>
-        <v>-4.79616346638068E-14</v>
+        <f>_xll.HLV5r3.Analytics.Rates.DiscountFactorToZeroRate2( 1, H40, (B40-CalcDate)/365, 0.25)</f>
+        <v>6.1565787133676303E-2</v>
       </c>
       <c r="H40" s="19">
-        <f ca="1"/>
-        <v>0.99989727082834001</v>
-      </c>
-      <c r="I40" s="18" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="J40" s="12" t="e">
-        <f ca="1">-(E40-E$4+SUMPRODUCT(I$5:I40,C$5:C40,E$5:E40))*10^6/F40</f>
-        <v>#NAME?</v>
+        <v>0.57644489400789267</v>
+      </c>
+      <c r="I40" s="18">
+        <f t="shared" si="1"/>
+        <v>6.7235647741440627E-2</v>
+      </c>
+      <c r="J40" s="12">
+        <f>-(E40-E$4+SUMPRODUCT(I$5:I40,C$5:C40,E$5:E40))*10^6/F40</f>
+        <v>39.770942932796807</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="21">
         <v>37</v>
       </c>
-      <c r="B41" s="25" t="e">
-        <f ca="1">_xll.Orion.ExcelAPI.Cache.Roll(BusCal,EDATE($B$4,(A41*3)),PmtConv)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="C41" s="19" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
+      <c r="B41" s="25">
+        <f>_xll.HLV5r3.Financial.Cache.Roll(BusCal,EDATE($B$4,(A41*3)),PmtConv)</f>
+        <v>43608</v>
+      </c>
+      <c r="C41" s="19">
+        <f t="shared" si="0"/>
+        <v>0.23835616438356164</v>
       </c>
       <c r="D41" s="18">
-        <f ca="1">_xll.HLV5r3.Analytics.Rates.DiscountFactorToZeroRate2( 1, E41, (B41-CalcDate)/365, 0.25)</f>
-        <v>-4.66293670342566E-14</v>
+        <f>_xll.HLV5r3.Analytics.Rates.DiscountFactorToZeroRate2( 1, E41, (B41-CalcDate)/365, 0.25)</f>
+        <v>6.5865148244691696E-2</v>
       </c>
       <c r="E41" s="19">
-        <f ca="1"/>
-        <v>0.99989945035525496</v>
-      </c>
-      <c r="F41" s="26" t="e">
-        <f ca="1">(0.0001*SUMPRODUCT(E$5:E41,C$5:C41)/E$4)*10^6</f>
-        <v>#NAME?</v>
+        <v>0.54629062216999824</v>
+      </c>
+      <c r="F41" s="26">
+        <f>(0.0001*SUMPRODUCT(E$5:E41,C$5:C41)/E$4)*10^6</f>
+        <v>702.05815094787044</v>
       </c>
       <c r="G41" s="18">
-        <f ca="1">_xll.HLV5r3.Analytics.Rates.DiscountFactorToZeroRate2( 1, H41, (B41-CalcDate)/365, 0.25)</f>
-        <v>-4.79616346638068E-14</v>
+        <f>_xll.HLV5r3.Analytics.Rates.DiscountFactorToZeroRate2( 1, H41, (B41-CalcDate)/365, 0.25)</f>
+        <v>6.16869034007737E-2</v>
       </c>
       <c r="H41" s="19">
-        <f ca="1"/>
-        <v>0.99989727082834001</v>
-      </c>
-      <c r="I41" s="18" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="J41" s="12" t="e">
-        <f ca="1">-(E41-E$4+SUMPRODUCT(I$5:I41,C$5:C41,E$5:E41))*10^6/F41</f>
-        <v>#NAME?</v>
+        <v>0.56748428096562031</v>
+      </c>
+      <c r="I41" s="18">
+        <f t="shared" si="1"/>
+        <v>6.624567026366196E-2</v>
+      </c>
+      <c r="J41" s="12">
+        <f>-(E41-E$4+SUMPRODUCT(I$5:I41,C$5:C41,E$5:E41))*10^6/F41</f>
+        <v>39.982251963607524</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="21">
         <v>38</v>
       </c>
-      <c r="B42" s="25" t="e">
-        <f ca="1">_xll.Orion.ExcelAPI.Cache.Roll(BusCal,EDATE($B$4,(A42*3)),PmtConv)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="C42" s="19" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
+      <c r="B42" s="25">
+        <f>_xll.HLV5r3.Financial.Cache.Roll(BusCal,EDATE($B$4,(A42*3)),PmtConv)</f>
+        <v>43700</v>
+      </c>
+      <c r="C42" s="19">
+        <f t="shared" si="0"/>
+        <v>0.25205479452054796</v>
       </c>
       <c r="D42" s="18">
-        <f ca="1">_xll.HLV5r3.Analytics.Rates.DiscountFactorToZeroRate2( 1, E42, (B42-CalcDate)/365, 0.25)</f>
-        <v>-4.66293670342566E-14</v>
+        <f>_xll.HLV5r3.Analytics.Rates.DiscountFactorToZeroRate2( 1, E42, (B42-CalcDate)/365, 0.25)</f>
+        <v>6.6019516897747502E-2</v>
       </c>
       <c r="E42" s="19">
-        <f ca="1"/>
-        <v>0.99989945035525496</v>
-      </c>
-      <c r="F42" s="26" t="e">
-        <f ca="1">(0.0001*SUMPRODUCT(E$5:E42,C$5:C42)/E$4)*10^6</f>
-        <v>#NAME?</v>
+        <v>0.53659355432666067</v>
+      </c>
+      <c r="F42" s="26">
+        <f>(0.0001*SUMPRODUCT(E$5:E42,C$5:C42)/E$4)*10^6</f>
+        <v>715.58460883609132</v>
       </c>
       <c r="G42" s="18">
-        <f ca="1">_xll.HLV5r3.Analytics.Rates.DiscountFactorToZeroRate2( 1, H42, (B42-CalcDate)/365, 0.25)</f>
-        <v>-4.79616346638068E-14</v>
+        <f>_xll.HLV5r3.Analytics.Rates.DiscountFactorToZeroRate2( 1, H42, (B42-CalcDate)/365, 0.25)</f>
+        <v>6.1814955858607398E-2</v>
       </c>
       <c r="H42" s="19">
-        <f ca="1"/>
-        <v>0.99989727082834001</v>
-      </c>
-      <c r="I42" s="18" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="J42" s="12" t="e">
-        <f ca="1">-(E42-E$4+SUMPRODUCT(I$5:I42,C$5:C42,E$5:E42))*10^6/F42</f>
-        <v>#NAME?</v>
+        <v>0.55812579525446804</v>
+      </c>
+      <c r="I42" s="18">
+        <f t="shared" si="1"/>
+        <v>6.6524025852202129E-2</v>
+      </c>
+      <c r="J42" s="12">
+        <f>-(E42-E$4+SUMPRODUCT(I$5:I42,C$5:C42,E$5:E42))*10^6/F42</f>
+        <v>40.204182440862262</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="21">
         <v>39</v>
       </c>
-      <c r="B43" s="25" t="e">
-        <f ca="1">_xll.Orion.ExcelAPI.Cache.Roll(BusCal,EDATE($B$4,(A43*3)),PmtConv)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="C43" s="19" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
+      <c r="B43" s="25">
+        <f>_xll.HLV5r3.Financial.Cache.Roll(BusCal,EDATE($B$4,(A43*3)),PmtConv)</f>
+        <v>43794</v>
+      </c>
+      <c r="C43" s="19">
+        <f t="shared" si="0"/>
+        <v>0.25753424657534246</v>
       </c>
       <c r="D43" s="18">
-        <f ca="1">_xll.HLV5r3.Analytics.Rates.DiscountFactorToZeroRate2( 1, E43, (B43-CalcDate)/365, 0.25)</f>
-        <v>-4.66293670342566E-14</v>
+        <f>_xll.HLV5r3.Analytics.Rates.DiscountFactorToZeroRate2( 1, E43, (B43-CalcDate)/365, 0.25)</f>
+        <v>6.61772159932799E-2</v>
       </c>
       <c r="E43" s="19">
-        <f ca="1"/>
-        <v>0.99989945035525496</v>
-      </c>
-      <c r="F43" s="26" t="e">
-        <f ca="1">(0.0001*SUMPRODUCT(E$5:E43,C$5:C43)/E$4)*10^6</f>
-        <v>#NAME?</v>
+        <v>0.52682194263677584</v>
+      </c>
+      <c r="F43" s="26">
+        <f>(0.0001*SUMPRODUCT(E$5:E43,C$5:C43)/E$4)*10^6</f>
+        <v>729.15344238511648</v>
       </c>
       <c r="G43" s="18">
-        <f ca="1">_xll.HLV5r3.Analytics.Rates.DiscountFactorToZeroRate2( 1, H43, (B43-CalcDate)/365, 0.25)</f>
-        <v>-4.79616346638068E-14</v>
+        <f>_xll.HLV5r3.Analytics.Rates.DiscountFactorToZeroRate2( 1, H43, (B43-CalcDate)/365, 0.25)</f>
+        <v>6.1945768032461303E-2</v>
       </c>
       <c r="H43" s="19">
-        <f ca="1"/>
-        <v>0.99989727082834001</v>
-      </c>
-      <c r="I43" s="18" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="J43" s="12" t="e">
-        <f ca="1">-(E43-E$4+SUMPRODUCT(I$5:I43,C$5:C43,E$5:E43))*10^6/F43</f>
-        <v>#NAME?</v>
+        <v>0.54868736792091666</v>
+      </c>
+      <c r="I43" s="18">
+        <f t="shared" si="1"/>
+        <v>6.6794343484611648E-2</v>
+      </c>
+      <c r="J43" s="12">
+        <f>-(E43-E$4+SUMPRODUCT(I$5:I43,C$5:C43,E$5:E43))*10^6/F43</f>
+        <v>40.428807103018052</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="21">
         <v>40</v>
       </c>
-      <c r="B44" s="25" t="e">
-        <f ca="1">_xll.Orion.ExcelAPI.Cache.Roll(BusCal,EDATE($B$4,(A44*3)),PmtConv)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="C44" s="19" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
+      <c r="B44" s="25">
+        <f>_xll.HLV5r3.Financial.Cache.Roll(BusCal,EDATE($B$4,(A44*3)),PmtConv)</f>
+        <v>43885</v>
+      </c>
+      <c r="C44" s="19">
+        <f t="shared" si="0"/>
+        <v>0.24931506849315069</v>
       </c>
       <c r="D44" s="18">
-        <f ca="1">_xll.HLV5r3.Analytics.Rates.DiscountFactorToZeroRate2( 1, E44, (B44-CalcDate)/365, 0.25)</f>
-        <v>-4.66293670342566E-14</v>
+        <f>_xll.HLV5r3.Analytics.Rates.DiscountFactorToZeroRate2( 1, E44, (B44-CalcDate)/365, 0.25)</f>
+        <v>6.6329859537264099E-2</v>
       </c>
       <c r="E44" s="19">
-        <f ca="1"/>
-        <v>0.99989945035525496</v>
-      </c>
-      <c r="F44" s="26" t="e">
-        <f ca="1">(0.0001*SUMPRODUCT(E$5:E44,C$5:C44)/E$4)*10^6</f>
-        <v>#NAME?</v>
+        <v>0.51749249277141152</v>
+      </c>
+      <c r="F44" s="26">
+        <f>(0.0001*SUMPRODUCT(E$5:E44,C$5:C44)/E$4)*10^6</f>
+        <v>742.05660742177645</v>
       </c>
       <c r="G44" s="18">
-        <f ca="1">_xll.HLV5r3.Analytics.Rates.DiscountFactorToZeroRate2( 1, H44, (B44-CalcDate)/365, 0.25)</f>
-        <v>-4.79616346638068E-14</v>
+        <f>_xll.HLV5r3.Analytics.Rates.DiscountFactorToZeroRate2( 1, H44, (B44-CalcDate)/365, 0.25)</f>
+        <v>6.20723839625077E-2</v>
       </c>
       <c r="H44" s="19">
-        <f ca="1"/>
-        <v>0.99989727082834001</v>
-      </c>
-      <c r="I44" s="18" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="J44" s="12" t="e">
-        <f ca="1">-(E44-E$4+SUMPRODUCT(I$5:I44,C$5:C44,E$5:E44))*10^6/F44</f>
-        <v>#NAME?</v>
+        <v>0.53966826996626716</v>
+      </c>
+      <c r="I44" s="18">
+        <f t="shared" si="1"/>
+        <v>6.7032851102018717E-2</v>
+      </c>
+      <c r="J44" s="12">
+        <f>-(E44-E$4+SUMPRODUCT(I$5:I44,C$5:C44,E$5:E44))*10^6/F44</f>
+        <v>40.643481532204504</v>
       </c>
       <c r="K44" s="52">
         <f>'Xccy Spread Curve'!G8</f>
